--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B813309-76E6-4575-8A32-985A52AE4F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43936684-6E1C-4F67-825B-3650283580AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題集の苦手分野" sheetId="2" r:id="rId1"/>
-    <sheet name="テンプレート" sheetId="3" r:id="rId2"/>
+    <sheet name="参考" sheetId="4" r:id="rId2"/>
+    <sheet name="テンプレート" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -204,9 +205,6 @@
     <t>4-16</t>
   </si>
   <si>
-    <t>4-18</t>
-  </si>
-  <si>
     <t>5-1</t>
   </si>
   <si>
@@ -271,15 +269,6 @@
   </si>
   <si>
     <t>7-21</t>
-  </si>
-  <si>
-    <t>7-22</t>
-  </si>
-  <si>
-    <t>7-24</t>
-  </si>
-  <si>
-    <t>7-25</t>
   </si>
   <si>
     <t>カテゴリ</t>
@@ -316,35 +305,7 @@
     <t>4-11</t>
   </si>
   <si>
-    <t>6-13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-25</t>
-  </si>
-  <si>
-    <t>7-4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7-9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7-13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7-23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4-19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7-16</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※合格率は63%</t>
@@ -358,30 +319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>配列の作成と使用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ループ構造の使用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドとカプセル化の操作</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>継承の操作</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例外の処理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Java APIの主要なクラスの操作</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学習メモ</t>
     <rPh sb="0" eb="2">
       <t>ガクシュウ</t>
@@ -477,67 +414,613 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※消す</t>
-    <rPh sb="1" eb="2">
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>2-15</t>
+  </si>
+  <si>
+    <t>2-16</t>
+  </si>
+  <si>
+    <t>2-17</t>
+  </si>
+  <si>
+    <t>2-18</t>
+  </si>
+  <si>
+    <t>2-19</t>
+  </si>
+  <si>
+    <t>2-20</t>
+  </si>
+  <si>
+    <t>2-21</t>
+  </si>
+  <si>
+    <t>2-22</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BCDGI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://codezine.jp/article/detail/10872</t>
+  </si>
+  <si>
+    <t>※場合によっては実装して確認</t>
+    <rPh sb="1" eb="3">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://paiza.io/ja/projects/new?language=java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行環境</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>3-18</t>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>4-14</t>
+  </si>
+  <si>
+    <t>4-17</t>
+  </si>
+  <si>
+    <t>制御構造</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の操作</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスとメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスの継承、インターフェース、抽象クラス</t>
+    <rPh sb="4" eb="6">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数型インターフェース、ラムダ式</t>
+    <rPh sb="0" eb="3">
+      <t>カンスウガタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型名に注意</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数リテラル</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数リテラル　アンダースコア（J7）</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>識別子の命名規則</t>
+    <rPh sb="0" eb="3">
+      <t>シキベツシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var(J10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>8-8</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>9-9</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t>10-7</t>
+  </si>
+  <si>
+    <t>10-8</t>
+  </si>
+  <si>
+    <t>10-9</t>
+  </si>
+  <si>
+    <t>10-10</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>11-6</t>
+  </si>
+  <si>
+    <t>11-7</t>
+  </si>
+  <si>
+    <t>11-8</t>
+  </si>
+  <si>
+    <t>11-9</t>
+  </si>
+  <si>
+    <t>11-10</t>
+  </si>
+  <si>
+    <t>11-11</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGDFEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>5－1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>6-17</t>
+  </si>
+  <si>
+    <t>6-18</t>
+  </si>
+  <si>
+    <t>6-19</t>
+  </si>
+  <si>
+    <t>6-26</t>
+  </si>
+  <si>
+    <t>6-27</t>
+  </si>
+  <si>
+    <t>6-28</t>
+  </si>
+  <si>
+    <t>6-29</t>
+  </si>
+  <si>
+    <t>6-30</t>
+  </si>
+  <si>
+    <t>※回答は解きなおすときには消す</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>2-12</t>
-  </si>
-  <si>
-    <t>2-13</t>
-  </si>
-  <si>
-    <t>2-15</t>
-  </si>
-  <si>
-    <t>2-16</t>
-  </si>
-  <si>
-    <t>2-17</t>
-  </si>
-  <si>
-    <t>2-18</t>
-  </si>
-  <si>
-    <t>2-19</t>
-  </si>
-  <si>
-    <t>2-20</t>
-  </si>
-  <si>
-    <t>2-21</t>
-  </si>
-  <si>
-    <t>2-22</t>
-  </si>
-  <si>
-    <t>1－8</t>
-    <phoneticPr fontId="1"/>
+    <t>誤回答</t>
+    <rPh sb="0" eb="1">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正答率</t>
+    <rPh sb="0" eb="2">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>7-11</t>
+  </si>
+  <si>
+    <t>7-13</t>
+  </si>
+  <si>
+    <t>7-14</t>
+  </si>
+  <si>
+    <t>7-15</t>
+  </si>
+  <si>
+    <t>7-16</t>
+  </si>
+  <si>
+    <t>7-17</t>
+  </si>
+  <si>
+    <t>7-18</t>
+  </si>
+  <si>
+    <t>7-19</t>
+  </si>
+  <si>
+    <t>7-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +1074,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -678,13 +1169,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -728,6 +1220,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -737,12 +1243,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1021,1364 +1540,2281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="34.9375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.4375" style="24" customWidth="1"/>
     <col min="4" max="6" width="7.3125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="28" customWidth="1"/>
     <col min="8" max="8" width="2.5" customWidth="1"/>
     <col min="9" max="9" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="10" t="s">
-        <v>109</v>
+      <c r="C1" s="35" t="s">
+        <v>232</v>
       </c>
       <c r="D1" s="14">
-        <f>COUNTIF(D3:D333,"〇")</f>
-        <v>4</v>
+        <f>COUNTIF(D4:D395,"〇")</f>
+        <v>40</v>
       </c>
       <c r="E1" s="14">
-        <f t="shared" ref="E1:F1" si="0">COUNTIF(E3:E333,"〇")</f>
+        <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E395,"〇")</f>
         <v>0</v>
       </c>
       <c r="F1" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="36">
+        <f>1-D1/(COUNTA(B:B)-1)</f>
+        <v>0.76878612716763006</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="23" t="s">
+      <c r="G3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="24"/>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>101</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>107</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>106</v>
+        <v>80</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="24"/>
+      <c r="A12" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="B12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="27" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="27" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="27" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="11"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="27" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="24"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="27" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="24"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="24"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="24"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="24"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="24"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="24"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="24"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="24"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="24"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="24"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="24"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="24"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="24"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="24"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="12"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="24"/>
-      <c r="B34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="11"/>
+      <c r="A34" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="24"/>
-      <c r="B35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="24"/>
-      <c r="B36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="12"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="24"/>
-      <c r="B37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="11"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="24"/>
-      <c r="B38" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="24"/>
-      <c r="B39" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="24"/>
-      <c r="B40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="12"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="24"/>
-      <c r="B41" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="11"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="24"/>
-      <c r="B42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="24"/>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="16"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="25"/>
-      <c r="B44" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="11"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="24"/>
-      <c r="B46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="27" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="24"/>
-      <c r="B47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="24"/>
-      <c r="B48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="12"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="24"/>
-      <c r="B49" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="24"/>
-      <c r="B50" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="I50" s="19"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="24"/>
-      <c r="B51" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="11"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="27"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="24"/>
-      <c r="B52" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="16"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="24"/>
-      <c r="B53" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="24"/>
-      <c r="B54" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="24"/>
+      <c r="A55" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="B55" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="24"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="24"/>
-      <c r="B57" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="12"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="25"/>
-      <c r="B58" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="18"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="23" t="s">
-        <v>84</v>
-      </c>
+      <c r="A59" s="30"/>
       <c r="B59" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="11"/>
+        <v>132</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="24"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="24"/>
-      <c r="B61" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="27"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="24"/>
-      <c r="B62" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="27"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="25"/>
-      <c r="B63" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="27"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="A64" s="30"/>
       <c r="B64" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="24"/>
+      <c r="G64" s="27"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="30"/>
       <c r="B65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="24"/>
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="30"/>
       <c r="B66" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="24"/>
+      <c r="G66" s="27"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="30"/>
       <c r="B67" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="24"/>
-      <c r="B68" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="12"/>
+      <c r="G67" s="27"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="30"/>
+      <c r="B68" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="24"/>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="30"/>
       <c r="B69" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="24"/>
-      <c r="B70" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="16"/>
+      <c r="G69" s="27"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="30"/>
+      <c r="B70" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="24"/>
-      <c r="B71" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="16"/>
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="31"/>
+      <c r="B71" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="I71" s="22"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="24"/>
-      <c r="B72" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="16"/>
+      <c r="G71" s="27"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="I72" s="19"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="24"/>
+      <c r="G72" s="27"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="30"/>
       <c r="B73" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="24"/>
-      <c r="B74" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="16"/>
+      <c r="G73" s="27"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="30"/>
+      <c r="B74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="24"/>
-      <c r="B75" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="16"/>
+      <c r="G74" s="27"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="30"/>
+      <c r="B75" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="24"/>
+      <c r="G75" s="27"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="30"/>
       <c r="B76" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="24"/>
+      <c r="G76" s="27"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="30"/>
       <c r="B77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="16"/>
+        <v>209</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="25"/>
-      <c r="B78" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="16"/>
+      <c r="G77" s="27"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="30"/>
+      <c r="B78" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="16"/>
+      <c r="G78" s="27"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="30"/>
+      <c r="B79" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="24"/>
+      <c r="G79" s="27"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="30"/>
       <c r="B80" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="16"/>
+        <v>211</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="27"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="24"/>
-      <c r="B81" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="12"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="24"/>
+      <c r="A82" s="29" t="s">
+        <v>137</v>
+      </c>
       <c r="B82" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C82" s="18"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="27"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="24"/>
-      <c r="B83" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="12"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="18"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="G83" s="27"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="24"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="C84" s="18"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="27"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="24"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="11"/>
+        <v>217</v>
+      </c>
+      <c r="C85" s="18"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
+      <c r="G85" s="27"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="24"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="11"/>
+        <v>218</v>
+      </c>
+      <c r="C86" s="18"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="27"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="24"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="C87" s="18"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
+      <c r="G87" s="27"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="24"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="C88" s="18"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="27"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="24"/>
-      <c r="B89" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C89" s="12"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="18"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
+      <c r="G89" s="27"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="25"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C90" s="18"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
+      <c r="G90" s="27"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="12"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="18"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
+      <c r="G91" s="27"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="24"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="11"/>
+        <v>221</v>
+      </c>
+      <c r="C92" s="18"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
+      <c r="G92" s="27"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="24"/>
-      <c r="B93" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="12"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="18"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
+      <c r="G93" s="27"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="24"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="11"/>
+        <v>222</v>
+      </c>
+      <c r="C94" s="18"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
+      <c r="G94" s="27"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="24"/>
-      <c r="B95" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="12"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="18"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
+      <c r="G95" s="27"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="24"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C96" s="18"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
+      <c r="G96" s="27"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="24"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C97" s="18"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
+      <c r="G97" s="27"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="24"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="11"/>
+        <v>223</v>
+      </c>
+      <c r="C98" s="18"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
+      <c r="G98" s="27"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="24"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="11"/>
+        <v>224</v>
+      </c>
+      <c r="C99" s="18"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
+      <c r="G99" s="27"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="24"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="11"/>
+        <v>225</v>
+      </c>
+      <c r="C100" s="18"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
+      <c r="G100" s="27"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="24"/>
-      <c r="B101" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="12"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="18"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
+      <c r="G101" s="27"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="25"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="C102" s="18"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
+      <c r="G102" s="27"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="12"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="18"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
+      <c r="G103" s="27"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="24"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C104" s="18"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
+      <c r="G104" s="27"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="24"/>
-      <c r="B105" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="12"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="18"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
+      <c r="G105" s="27"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="24"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="C106" s="18"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
+      <c r="G106" s="27"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="24"/>
-      <c r="B107" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C107" s="12"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="18"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
+      <c r="G107" s="27"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="24"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" s="11"/>
+        <v>227</v>
+      </c>
+      <c r="C108" s="18"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
+      <c r="G108" s="27"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="24"/>
+      <c r="A109" s="30"/>
       <c r="B109" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C109" s="11"/>
+        <v>228</v>
+      </c>
+      <c r="C109" s="18"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
+      <c r="G109" s="27"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="24"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" s="11"/>
+        <v>229</v>
+      </c>
+      <c r="C110" s="18"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
+      <c r="G110" s="27"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="24"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C111" s="11"/>
+        <v>230</v>
+      </c>
+      <c r="C111" s="18"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
+      <c r="G111" s="27"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="24"/>
-      <c r="B112" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="11"/>
+      <c r="A112" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="18"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
+      <c r="G112" s="27"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="24"/>
-      <c r="B113" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C113" s="12"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="18"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
+      <c r="G113" s="27"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="25"/>
-      <c r="B114" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" s="11"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="18"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
+      <c r="G114" s="27"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="33"/>
+      <c r="B115" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="27"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="33"/>
+      <c r="B116" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="27"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="33"/>
+      <c r="B117" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="27"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="33"/>
+      <c r="B118" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="27"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="33"/>
+      <c r="B119" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="18"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="27"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="33"/>
+      <c r="B120" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="27"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="33"/>
+      <c r="B121" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="18"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="27"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="33"/>
+      <c r="B122" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="27"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="33"/>
+      <c r="B123" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="27"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="33"/>
+      <c r="B124" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="18"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="27"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="33"/>
+      <c r="B125" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="27"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="33"/>
+      <c r="B126" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="18"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="27"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="33"/>
+      <c r="B127" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" s="18"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="27"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="33"/>
+      <c r="B128" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="27"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="33"/>
+      <c r="B129" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="18"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="27"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="33"/>
+      <c r="B130" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="27"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="33"/>
+      <c r="B131" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="18"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="27"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="34"/>
+      <c r="B132" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="27"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" s="18"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="27"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="30"/>
+      <c r="B134" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="18"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="27"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="30"/>
+      <c r="B135" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" s="18"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="27"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="30"/>
+      <c r="B136" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="18"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="27"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="30"/>
+      <c r="B137" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="18"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="27"/>
+      <c r="I137" s="19"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="30"/>
+      <c r="B138" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="27"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="30"/>
+      <c r="B139" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="27"/>
+      <c r="I139" s="19"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="30"/>
+      <c r="B140" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="27"/>
+      <c r="I140" s="22"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="27"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="30"/>
+      <c r="B142" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" s="18"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="27"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="30"/>
+      <c r="B143" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" s="18"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="27"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="30"/>
+      <c r="B144" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="27"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="30"/>
+      <c r="B145" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C145" s="18"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="27"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="30"/>
+      <c r="B146" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="18"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="27"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="30"/>
+      <c r="B147" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" s="18"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="27"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="30"/>
+      <c r="B148" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C148" s="18"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="27"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="30"/>
+      <c r="B149" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C149" s="18"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="27"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="30"/>
+      <c r="B150" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="18"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="27"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="30"/>
+      <c r="B151" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="27"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="31"/>
+      <c r="B152" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="27"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="27"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="30"/>
+      <c r="B154" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="27"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="30"/>
+      <c r="B155" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" s="18"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="27"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="30"/>
+      <c r="B156" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C156" s="18"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="27"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="30"/>
+      <c r="B157" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" s="18"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="27"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="30"/>
+      <c r="B158" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C158" s="18"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="27"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="30"/>
+      <c r="B159" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" s="18"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="27"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="30"/>
+      <c r="B160" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" s="18"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="27"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="30"/>
+      <c r="B161" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" s="18"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="27"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="30"/>
+      <c r="B162" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" s="18"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="27"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="30"/>
+      <c r="B163" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C163" s="18"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="27"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="31"/>
+      <c r="B164" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="27"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="27"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="30"/>
+      <c r="B166" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="18"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="27"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="30"/>
+      <c r="B167" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C167" s="18"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="27"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="30"/>
+      <c r="B168" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="18"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="27"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="30"/>
+      <c r="B169" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" s="18"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="27"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="30"/>
+      <c r="B170" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C170" s="18"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="27"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="30"/>
+      <c r="B171" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C171" s="18"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="27"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="30"/>
+      <c r="B172" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C172" s="18"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="27"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="30"/>
+      <c r="B173" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" s="18"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="27"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="30"/>
+      <c r="B174" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C174" s="18"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="27"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="30"/>
+      <c r="B175" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C175" s="18"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="27"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="31"/>
+      <c r="B176" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" s="18"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A91:A102"/>
-    <mergeCell ref="A103:A114"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A79:A90"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A32"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="A45:A58"/>
+  <mergeCells count="11">
+    <mergeCell ref="A82:A111"/>
+    <mergeCell ref="A153:A164"/>
+    <mergeCell ref="A165:A176"/>
+    <mergeCell ref="A133:A140"/>
+    <mergeCell ref="A141:A152"/>
+    <mergeCell ref="A112:A132"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,6 +3823,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6279B19D-85FE-48D7-B0EB-DAF52D54D26C}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D9D3C5C8-2376-47BD-8658-7693708ED41C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{68C69145-40C5-48FC-A43A-6AC162A0E3CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FDF08A-11C1-405C-B417-AE0AEEE28106}">
   <dimension ref="A1:G81"/>
   <sheetViews>
@@ -2480,7 +3952,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43936684-6E1C-4F67-825B-3650283580AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60923A7-D89C-4E5F-B1E7-5E61F1CE622C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="257">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -808,21 +808,6 @@
     <t>11-7</t>
   </si>
   <si>
-    <t>11-8</t>
-  </si>
-  <si>
-    <t>11-9</t>
-  </si>
-  <si>
-    <t>11-10</t>
-  </si>
-  <si>
-    <t>11-11</t>
-  </si>
-  <si>
-    <t>11-12</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -1014,13 +999,53 @@
   </si>
   <si>
     <t>7-20</t>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-13</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>10-16</t>
+  </si>
+  <si>
+    <t>10-17</t>
+  </si>
+  <si>
+    <t>9-13</t>
+  </si>
+  <si>
+    <t>9-14</t>
+  </si>
+  <si>
+    <t>9-15</t>
+  </si>
+  <si>
+    <t>9-16</t>
+  </si>
+  <si>
+    <t>9-17</t>
+  </si>
+  <si>
+    <t>9-18</t>
+  </si>
+  <si>
+    <t>9-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,15 +1087,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1174,9 +1190,9 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1191,7 +1207,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1224,7 +1239,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1540,56 +1555,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="34.9375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.9375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4375" style="24" customWidth="1"/>
-    <col min="4" max="6" width="7.3125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.4375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.4375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="27" customWidth="1"/>
     <col min="8" max="8" width="2.5" customWidth="1"/>
-    <col min="9" max="9" width="9" style="20"/>
+    <col min="9" max="9" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="14">
-        <f>COUNTIF(D4:D395,"〇")</f>
-        <v>40</v>
-      </c>
-      <c r="E1" s="14">
-        <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E395,"〇")</f>
+      <c r="C1" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="13">
+        <f>COUNTIF(D4:D402,"〇")</f>
+        <v>50</v>
+      </c>
+      <c r="E1" s="13">
+        <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
         <v>0</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="C2" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="36">
-        <f>1-D1/(COUNTA(B:B)-1)</f>
-        <v>0.76878612716763006</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="24" t="s">
-        <v>231</v>
+      <c r="C2" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="35">
+        <f>1-D1/(COUNTA($B:$B)-1)</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E2" s="35">
+        <f>1-E1/(COUNTA($B:$B)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="35">
+        <f>1-F1/(COUNTA($B:$B)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="I2" s="23" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1602,23 +1624,23 @@
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>64</v>
@@ -1626,2189 +1648,2316 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="27"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="27"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="27"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="27"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="30"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="27" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="27" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="27"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="27" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="26" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="27" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="26" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="27"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="27"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="27"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="27"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="27"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="30"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="27"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="30"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="27"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="27"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="27"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="27"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="27"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="27"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="30"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="27"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="27"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="27"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="29"/>
+      <c r="B35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="29"/>
+      <c r="B36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="29"/>
+      <c r="B37" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="29"/>
+      <c r="B38" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="29"/>
+      <c r="B39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="29"/>
+      <c r="B40" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="29"/>
+      <c r="B41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="29"/>
+      <c r="B42" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="29"/>
+      <c r="B43" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="29"/>
+      <c r="B44" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="30"/>
-      <c r="B35" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="D44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="29"/>
+      <c r="B45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="29"/>
+      <c r="B46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="29"/>
+      <c r="B47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="30"/>
-      <c r="B36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="29"/>
+      <c r="B48" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="29"/>
+      <c r="B49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="29"/>
+      <c r="B50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="29"/>
+      <c r="B51" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="29"/>
+      <c r="B52" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="30"/>
-      <c r="B37" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="D52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="29"/>
+      <c r="B53" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="30"/>
-      <c r="B38" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="30"/>
-      <c r="B39" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="30"/>
-      <c r="B40" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="30"/>
-      <c r="B42" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="16" t="s">
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="30"/>
+      <c r="B54" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="30"/>
-      <c r="B43" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="30"/>
-      <c r="B44" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="30"/>
-      <c r="B45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="30"/>
-      <c r="B46" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="30"/>
-      <c r="B47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="30"/>
-      <c r="B48" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="30"/>
-      <c r="B49" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="27"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="30"/>
-      <c r="B50" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="30"/>
-      <c r="B51" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="30"/>
-      <c r="B52" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="30"/>
-      <c r="B53" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="31"/>
-      <c r="B54" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="27"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="27"/>
+      <c r="C55" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="30"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="27"/>
+      <c r="C56" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="30"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="27"/>
+      <c r="C57" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="30"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="27"/>
+      <c r="C58" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="30"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="27"/>
+      <c r="C59" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="30"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="27"/>
+      <c r="C60" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="30"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D61" s="16" t="s">
+      <c r="C61" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="27"/>
-      <c r="I61" s="19"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="26"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="30"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D62" s="16" t="s">
+      <c r="C62" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="27"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="30"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="16" t="s">
+      <c r="C63" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="27"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="30"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="27"/>
+      <c r="C64" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="30"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="27"/>
+      <c r="C65" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="30"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="27"/>
+      <c r="C66" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="30"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="16" t="s">
+      <c r="C67" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="27"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="30"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="27"/>
+      <c r="C68" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="30"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="C69" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="27"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="30"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="C70" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="27"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="31"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="16" t="s">
+      <c r="C71" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="27"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="16" t="s">
+      <c r="C72" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="27"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="30"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="16" t="s">
+      <c r="C73" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="27"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="30"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="16" t="s">
+      <c r="C74" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="27"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="30"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="16" t="s">
+      <c r="C75" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="27"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="30"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="16" t="s">
+      <c r="C76" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="27"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="30"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="27"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="30"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78" s="16" t="s">
+      <c r="C78" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="27"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="30"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="27"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="30"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="27"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="30"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="27"/>
+        <v>207</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="27"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="30"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="27"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="30"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="27"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="30"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="27"/>
+        <v>212</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="30"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="27"/>
+        <v>213</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="30"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="27"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="30"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="27"/>
+        <v>214</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="30"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="27"/>
+        <v>215</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="30"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="27"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="30"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="27"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="30"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="27"/>
+        <v>216</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="30"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="27"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="30"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="27"/>
+        <v>217</v>
+      </c>
+      <c r="C94" s="17"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="30"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="27"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="30"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="27"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="30"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="27"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="30"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="C98" s="17"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="26"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="30"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="27"/>
+        <v>219</v>
+      </c>
+      <c r="C99" s="17"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="30"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="27"/>
+        <v>220</v>
+      </c>
+      <c r="C100" s="17"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="30"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="27"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="30"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="27"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="30"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="27"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="30"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="27"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="30"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="27"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="30"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="27"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="30"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" s="18"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="27"/>
+        <v>221</v>
+      </c>
+      <c r="C107" s="17"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="30"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="27"/>
+        <v>222</v>
+      </c>
+      <c r="C108" s="17"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="30"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C109" s="18"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="27"/>
+        <v>223</v>
+      </c>
+      <c r="C109" s="17"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="30"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="30"/>
+      <c r="B111" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="17"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="26"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="17"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="26"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="32"/>
+      <c r="B113" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="17"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="26"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="32"/>
+      <c r="B114" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="17"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="26"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="32"/>
+      <c r="B115" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="27"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="31"/>
-      <c r="B111" s="11" t="s">
+      <c r="C115" s="17"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="26"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="32"/>
+      <c r="B116" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="27"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="27"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="33"/>
-      <c r="B113" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="27"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="33"/>
-      <c r="B114" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="27"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="33"/>
-      <c r="B115" s="18" t="s">
+      <c r="C116" s="17"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="26"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="32"/>
+      <c r="B117" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="17"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="26"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="32"/>
+      <c r="B118" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="17"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="26"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="32"/>
+      <c r="B119" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="17"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="26"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="32"/>
+      <c r="B120" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="17"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="26"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="32"/>
+      <c r="B121" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="27"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="33"/>
-      <c r="B116" s="18" t="s">
+      <c r="C121" s="17"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="26"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="32"/>
+      <c r="B122" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="27"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="33"/>
-      <c r="B117" s="18" t="s">
+      <c r="C122" s="17"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="26"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="32"/>
+      <c r="B123" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="26"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="32"/>
+      <c r="B124" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="27"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="33"/>
-      <c r="B118" s="18" t="s">
+      <c r="C124" s="17"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="26"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="32"/>
+      <c r="B125" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="27"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="33"/>
-      <c r="B119" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="27"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="33"/>
-      <c r="B120" s="18" t="s">
+      <c r="C125" s="17"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="26"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="32"/>
+      <c r="B126" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="27"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="33"/>
-      <c r="B121" s="18" t="s">
+      <c r="C126" s="17"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="26"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="32"/>
+      <c r="B127" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="27"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="33"/>
-      <c r="B122" s="18" t="s">
+      <c r="C127" s="17"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="26"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="32"/>
+      <c r="B128" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="27"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="33"/>
-      <c r="B123" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="27"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="33"/>
-      <c r="B124" s="18" t="s">
+      <c r="C128" s="17"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="26"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="32"/>
+      <c r="B129" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="27"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="33"/>
-      <c r="B125" s="18" t="s">
+      <c r="C129" s="17"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="26"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="32"/>
+      <c r="B130" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="27"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="33"/>
-      <c r="B126" s="18" t="s">
+      <c r="C130" s="17"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="26"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="32"/>
+      <c r="B131" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="27"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="33"/>
-      <c r="B127" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C127" s="18"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="27"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="33"/>
-      <c r="B128" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="27"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="33"/>
-      <c r="B129" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C129" s="18"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="27"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="33"/>
-      <c r="B130" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C130" s="18"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="27"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="33"/>
-      <c r="B131" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="27"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="26"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="34"/>
-      <c r="B132" s="18" t="s">
+      <c r="A132" s="33"/>
+      <c r="B132" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="27"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="26"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="27"/>
+      <c r="C133" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="26"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="30"/>
-      <c r="B134" s="18" t="s">
+      <c r="A134" s="29"/>
+      <c r="B134" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="27"/>
+      <c r="C134" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="26"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="30"/>
-      <c r="B135" s="18" t="s">
+      <c r="A135" s="29"/>
+      <c r="B135" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C135" s="18"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="27"/>
+      <c r="C135" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="26"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="30"/>
-      <c r="B136" s="18" t="s">
+      <c r="A136" s="29"/>
+      <c r="B136" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C136" s="18"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="27"/>
+      <c r="C136" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="26"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="30"/>
-      <c r="B137" s="18" t="s">
+      <c r="A137" s="29"/>
+      <c r="B137" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="18"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="27"/>
-      <c r="I137" s="19"/>
+      <c r="C137" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="26"/>
+      <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="30"/>
-      <c r="B138" s="18" t="s">
+      <c r="A138" s="29"/>
+      <c r="B138" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C138" s="18"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="27"/>
+      <c r="C138" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="30"/>
-      <c r="B139" s="18" t="s">
+      <c r="A139" s="29"/>
+      <c r="B139" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="27"/>
-      <c r="I139" s="19"/>
+      <c r="C139" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="26"/>
+      <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="30"/>
-      <c r="B140" s="18" t="s">
+      <c r="A140" s="29"/>
+      <c r="B140" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="27"/>
-      <c r="I140" s="22"/>
+      <c r="C140" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="26"/>
+      <c r="I140" s="21"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="29" t="s">
+      <c r="A141" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="27"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="26"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="30"/>
-      <c r="B142" s="12" t="s">
+      <c r="A142" s="29"/>
+      <c r="B142" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C142" s="18"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="27"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="26"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="30"/>
-      <c r="B143" s="12" t="s">
+      <c r="A143" s="29"/>
+      <c r="B143" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C143" s="18"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="27"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="26"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="30"/>
-      <c r="B144" s="12" t="s">
+      <c r="A144" s="29"/>
+      <c r="B144" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C144" s="18"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="27"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="26"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="30"/>
-      <c r="B145" s="12" t="s">
+      <c r="A145" s="29"/>
+      <c r="B145" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C145" s="18"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="27"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="26"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="30"/>
-      <c r="B146" s="12" t="s">
+      <c r="A146" s="29"/>
+      <c r="B146" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C146" s="18"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="27"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="26"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="30"/>
-      <c r="B147" s="12" t="s">
+      <c r="A147" s="29"/>
+      <c r="B147" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C147" s="18"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="27"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="26"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="30"/>
-      <c r="B148" s="12" t="s">
+      <c r="A148" s="29"/>
+      <c r="B148" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C148" s="18"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="27"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="26"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="30"/>
-      <c r="B149" s="12" t="s">
+      <c r="A149" s="29"/>
+      <c r="B149" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C149" s="18"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="27"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="26"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="30"/>
-      <c r="B150" s="12" t="s">
+      <c r="A150" s="29"/>
+      <c r="B150" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C150" s="18"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="27"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="26"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="30"/>
-      <c r="B151" s="12" t="s">
+      <c r="A151" s="29"/>
+      <c r="B151" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="27"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="26"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="31"/>
-      <c r="B152" s="12" t="s">
+      <c r="A152" s="29"/>
+      <c r="B152" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C152" s="18"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="27"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="26"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="18"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="27"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C153" s="17"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="26"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="30"/>
-      <c r="B154" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C154" s="18"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="27"/>
+      <c r="A154" s="29"/>
+      <c r="B154" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C154" s="17"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="26"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="30"/>
-      <c r="B155" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C155" s="18"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="27"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C155" s="17"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="26"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="30"/>
-      <c r="B156" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C156" s="18"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="27"/>
+      <c r="A156" s="29"/>
+      <c r="B156" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C156" s="17"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="26"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="30"/>
-      <c r="B157" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C157" s="18"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="27"/>
+      <c r="A157" s="29"/>
+      <c r="B157" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C157" s="17"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="26"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="30"/>
-      <c r="B158" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C158" s="18"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="27"/>
+      <c r="A158" s="29"/>
+      <c r="B158" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" s="17"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="26"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="30"/>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" s="17"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="26"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="17"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="26"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="29"/>
+      <c r="B161" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161" s="17"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="26"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="29"/>
+      <c r="B162" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" s="17"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="26"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="29"/>
+      <c r="B163" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163" s="17"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="26"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="29"/>
+      <c r="B164" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="26"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="29"/>
+      <c r="B165" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="26"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="29"/>
+      <c r="B166" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C159" s="18"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="27"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="30"/>
-      <c r="B160" s="12" t="s">
+      <c r="C166" s="17"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="26"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="29"/>
+      <c r="B167" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C160" s="18"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="27"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="30"/>
-      <c r="B161" s="12" t="s">
+      <c r="C167" s="17"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="26"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="29"/>
+      <c r="B168" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C161" s="18"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="27"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="30"/>
-      <c r="B162" s="12" t="s">
+      <c r="C168" s="17"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="26"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="29"/>
+      <c r="B169" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="27"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="30"/>
-      <c r="B163" s="12" t="s">
+      <c r="C169" s="17"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="26"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="29"/>
+      <c r="B170" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C163" s="18"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="27"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="31"/>
-      <c r="B164" s="12" t="s">
+      <c r="C170" s="17"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="26"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="29"/>
+      <c r="B171" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C164" s="18"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="27"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="29" t="s">
+      <c r="C171" s="17"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="26"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="29"/>
+      <c r="B172" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" s="17"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="26"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="29"/>
+      <c r="B173" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" s="17"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="26"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="29"/>
+      <c r="B174" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" s="17"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="26"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="29"/>
+      <c r="B175" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C175" s="17"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="26"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="30"/>
+      <c r="B176" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" s="17"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="26"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="B177" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C165" s="18"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="27"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="30"/>
-      <c r="B166" s="12" t="s">
+      <c r="C177" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="26"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="29"/>
+      <c r="B178" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="27"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="30"/>
-      <c r="B167" s="12" t="s">
+      <c r="C178" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="26"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="29"/>
+      <c r="B179" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C167" s="18"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="27"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="30"/>
-      <c r="B168" s="12" t="s">
+      <c r="C179" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="26"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="29"/>
+      <c r="B180" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C168" s="18"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="27"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="30"/>
-      <c r="B169" s="12" t="s">
+      <c r="C180" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="26"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="29"/>
+      <c r="B181" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="27"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="30"/>
-      <c r="B170" s="12" t="s">
+      <c r="C181" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="26"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="29"/>
+      <c r="B182" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C170" s="18"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="27"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="30"/>
-      <c r="B171" s="12" t="s">
+      <c r="C182" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="26"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="30"/>
+      <c r="B183" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C171" s="18"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="27"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="30"/>
-      <c r="B172" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C172" s="18"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="27"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="30"/>
-      <c r="B173" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C173" s="18"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="27"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="30"/>
-      <c r="B174" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="27"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="30"/>
-      <c r="B175" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C175" s="18"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="27"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="31"/>
-      <c r="B176" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C176" s="18"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="27"/>
+      <c r="C183" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A82:A111"/>
-    <mergeCell ref="A153:A164"/>
-    <mergeCell ref="A165:A176"/>
+    <mergeCell ref="A160:A176"/>
+    <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
-    <mergeCell ref="A141:A152"/>
+    <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A33"/>
@@ -3836,7 +3985,7 @@
       <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3844,7 +3993,7 @@
       <c r="B3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60923A7-D89C-4E5F-B1E7-5E61F1CE622C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130D3F6-9649-4790-9F10-EF508158A243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="270">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -486,19 +486,6 @@
     <t>https://codezine.jp/article/detail/10872</t>
   </si>
   <si>
-    <t>※場合によっては実装して確認</t>
-    <rPh sb="1" eb="3">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A,B</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -865,10 +852,6 @@
     <t>5-10</t>
   </si>
   <si>
-    <t>5－1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -918,9 +901,6 @@
   </si>
   <si>
     <t>6-29</t>
-  </si>
-  <si>
-    <t>6-30</t>
   </si>
   <si>
     <t>※回答は解きなおすときには消す</t>
@@ -1039,6 +1019,88 @@
   </si>
   <si>
     <t>9-19</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ選択</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※場合によっては実装して確認、95%の正答率になるまでやる</t>
+    <rPh sb="1" eb="3">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1249,6 +1311,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1266,12 +1334,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1558,7 +1620,7 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1574,12 +1636,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="34" t="s">
-        <v>227</v>
+      <c r="C1" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="D1" s="13">
         <f>COUNTIF(D4:D402,"〇")</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
@@ -1590,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="C2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="35">
+      <c r="C2" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="29">
         <f>1-D1/(COUNTA($B:$B)-1)</f>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="E2" s="35">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
         <v>1</v>
       </c>
       <c r="G2" s="25"/>
       <c r="I2" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1640,7 +1702,7 @@
         <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>64</v>
@@ -1648,7 +1710,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1663,9 +1725,13 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="26"/>
+      <c r="I4" s="19">
+        <f>COUNTA($B:$B)-1</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
@@ -1678,7 +1744,7 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
@@ -1691,7 +1757,7 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
         <v>78</v>
       </c>
@@ -1704,7 +1770,7 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
         <v>79</v>
       </c>
@@ -1717,7 +1783,7 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
@@ -1732,7 +1798,7 @@
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>81</v>
       </c>
@@ -1747,7 +1813,7 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
@@ -1762,7 +1828,7 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1777,11 +1843,11 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
@@ -1794,11 +1860,11 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
@@ -1811,11 +1877,11 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1894,7 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="17" t="s">
         <v>92</v>
       </c>
@@ -1841,11 +1907,11 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
@@ -1858,11 +1924,11 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="17" t="s">
         <v>93</v>
       </c>
@@ -1877,7 +1943,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="17" t="s">
         <v>94</v>
       </c>
@@ -1890,12 +1956,12 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1903,12 +1969,12 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>3</v>
@@ -1918,12 +1984,12 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1931,12 +1997,12 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1944,7 +2010,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="29"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="17" t="s">
         <v>98</v>
       </c>
@@ -1957,7 +2023,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="29"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
@@ -1970,12 +2036,12 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="29"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -1983,7 +2049,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="29"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="17" t="s">
         <v>100</v>
       </c>
@@ -1996,7 +2062,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="17" t="s">
         <v>101</v>
       </c>
@@ -2009,7 +2075,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="17" t="s">
         <v>102</v>
       </c>
@@ -2022,7 +2088,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="29"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="17" t="s">
         <v>103</v>
       </c>
@@ -2037,12 +2103,12 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>3</v>
@@ -2052,7 +2118,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="29"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
@@ -2065,7 +2131,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="17" t="s">
         <v>106</v>
       </c>
@@ -2078,14 +2144,14 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2093,12 +2159,12 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="29"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>3</v>
@@ -2108,12 +2174,12 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="29"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -2121,12 +2187,12 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="29"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -2134,12 +2200,12 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="29"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -2147,12 +2213,12 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="29"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>3</v>
@@ -2162,12 +2228,12 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="29"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -2175,12 +2241,12 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="29"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -2188,12 +2254,12 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="29"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>3</v>
@@ -2203,12 +2269,12 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="29"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>3</v>
@@ -2218,12 +2284,12 @@
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="29"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>3</v>
@@ -2233,12 +2299,12 @@
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="29"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -2246,29 +2312,29 @@
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="29"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="29"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>3</v>
@@ -2278,12 +2344,12 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="29"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -2291,12 +2357,12 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="29"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>3</v>
@@ -2306,12 +2372,12 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="29"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -2319,12 +2385,12 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="29"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -2332,12 +2398,12 @@
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="29"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>3</v>
@@ -2347,12 +2413,12 @@
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="29"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>3</v>
@@ -2362,12 +2428,12 @@
       <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="30"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>3</v>
@@ -2377,14 +2443,14 @@
       <c r="G54" s="26"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="28" t="s">
-        <v>135</v>
+      <c r="A55" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -2392,12 +2458,12 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="29"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -2405,12 +2471,12 @@
       <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="29"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -2418,12 +2484,12 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="29"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -2431,12 +2497,12 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="29"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -2444,12 +2510,12 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="29"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -2457,12 +2523,12 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="29"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>3</v>
@@ -2473,12 +2539,12 @@
       <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="29"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>3</v>
@@ -2488,12 +2554,12 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="29"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>3</v>
@@ -2503,12 +2569,12 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="29"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2516,12 +2582,12 @@
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="29"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -2529,12 +2595,12 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="29"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -2542,12 +2608,12 @@
       <c r="G66" s="26"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="29"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>3</v>
@@ -2557,12 +2623,12 @@
       <c r="G67" s="26"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="29"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -2570,12 +2636,12 @@
       <c r="G68" s="26"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="29"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>3</v>
@@ -2585,12 +2651,12 @@
       <c r="G69" s="26"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="29"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>3</v>
@@ -2600,12 +2666,12 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="30"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>3</v>
@@ -2615,14 +2681,14 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="28" t="s">
-        <v>136</v>
+      <c r="A72" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>3</v>
@@ -2632,12 +2698,12 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="29"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>3</v>
@@ -2647,12 +2713,12 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="29"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>3</v>
@@ -2662,12 +2728,12 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="29"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>3</v>
@@ -2677,12 +2743,12 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="29"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>3</v>
@@ -2692,12 +2758,12 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="29"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>3</v>
@@ -2707,12 +2773,12 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="29"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>3</v>
@@ -2722,12 +2788,12 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="29"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>3</v>
@@ -2737,12 +2803,12 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="29"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>3</v>
@@ -2752,12 +2818,12 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="29"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -2765,579 +2831,735 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="28" t="s">
-        <v>137</v>
+      <c r="A82" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="29"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" s="17"/>
+        <v>154</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="29"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="29"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="15"/>
+        <v>210</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="29"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="26"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="29"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="29"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="17"/>
+        <v>212</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="29"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C89" s="17"/>
+        <v>213</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="26"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="29"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="17"/>
+      <c r="C90" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="29"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="29"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="15"/>
+        <v>214</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="29"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="17"/>
+      <c r="C93" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="29"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C94" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="29"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="26"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="29"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="15"/>
+      <c r="C96" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="26"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="29"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="15"/>
+      <c r="C97" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="G97" s="26"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="29"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="15"/>
+        <v>216</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
       <c r="G98" s="26"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="29"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="26"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="29"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="17"/>
+        <v>218</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="29"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="15"/>
+      <c r="C101" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="29"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="29"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="15"/>
+      <c r="C103" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="29"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
       <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="29"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="15"/>
+      <c r="C105" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="29"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="17"/>
+      <c r="C106" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="29"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="15"/>
+        <v>219</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="29"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="15"/>
+        <v>220</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="29"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C109" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="29"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C110" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="30"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C111" s="17"/>
+        <v>265</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="31" t="s">
-        <v>138</v>
+      <c r="A112" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="32"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="15"/>
+      <c r="C113" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="32"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C114" s="17"/>
+        <v>155</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="G114" s="26"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="32"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="15"/>
+        <v>226</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="32"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" s="17"/>
+        <v>227</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="32"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="15"/>
+        <v>228</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="32"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C118" s="17"/>
+        <v>229</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="32"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="15"/>
+      <c r="C119" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="32"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="15"/>
+        <v>230</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="32"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C121" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
       <c r="G121" s="26"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="32"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="15"/>
+        <v>232</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
       <c r="G122" s="26"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="32"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="15"/>
+      <c r="C123" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
       <c r="G123" s="26"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="32"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="15"/>
+        <v>233</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
       <c r="G124" s="26"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="32"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C125" s="17"/>
+        <v>234</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
       <c r="G125" s="26"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="32"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="15"/>
+        <v>235</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
       <c r="G126" s="26"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="32"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C127" s="17"/>
+        <v>236</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
       <c r="G127" s="26"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="32"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C128" s="17"/>
+        <v>237</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
       <c r="G128" s="26"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="32"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C129" s="17"/>
+        <v>238</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
       <c r="G129" s="26"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="32"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="15"/>
+        <v>239</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
       <c r="G130" s="26"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="32"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C131" s="17"/>
+        <v>240</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
       <c r="G131" s="26"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="33"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
       <c r="G132" s="26"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="28" t="s">
-        <v>139</v>
+      <c r="A133" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>3</v>
@@ -3347,12 +3569,12 @@
       <c r="G133" s="26"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="29"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>3</v>
@@ -3362,12 +3584,12 @@
       <c r="G134" s="26"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="29"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>3</v>
@@ -3377,12 +3599,12 @@
       <c r="G135" s="26"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="29"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -3390,12 +3612,12 @@
       <c r="G136" s="26"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="29"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>3</v>
@@ -3406,12 +3628,12 @@
       <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="29"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>3</v>
@@ -3421,12 +3643,12 @@
       <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="29"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -3435,12 +3657,12 @@
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="29"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>3</v>
@@ -3451,414 +3673,526 @@
       <c r="I140" s="21"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="28" t="s">
-        <v>140</v>
+      <c r="A141" s="30" t="s">
+        <v>139</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C141" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="G141" s="26"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="29"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="15"/>
+        <v>163</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="26"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="29"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C143" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="G143" s="26"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="29"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C144" s="17"/>
+        <v>165</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="26"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="29"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="15"/>
+        <v>166</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="G145" s="26"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="29"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C146" s="17"/>
+        <v>167</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="G146" s="26"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="29"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="15"/>
+        <v>168</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
       <c r="G147" s="26"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="29"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="15"/>
+        <v>169</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
       <c r="G148" s="26"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="29"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C149" s="17"/>
+        <v>170</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
       <c r="G149" s="26"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="29"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C150" s="17"/>
+        <v>171</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
       <c r="G150" s="26"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="29"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="15"/>
+        <v>172</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
       <c r="G151" s="26"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="29"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
       <c r="G152" s="26"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="29"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C153" s="17"/>
+        <v>247</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
       <c r="G153" s="26"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="29"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
       <c r="G154" s="26"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="29"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
       <c r="G155" s="26"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="29"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="15"/>
+        <v>250</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
       <c r="G156" s="26"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="29"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C157" s="17"/>
+        <v>251</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
       <c r="G157" s="26"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="29"/>
+      <c r="A158" s="31"/>
       <c r="B158" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="15"/>
+        <v>252</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
       <c r="G158" s="26"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="30"/>
+      <c r="A159" s="32"/>
       <c r="B159" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C159" s="17"/>
+        <v>253</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
       <c r="G159" s="26"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="28" t="s">
-        <v>141</v>
+      <c r="A160" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
       <c r="G160" s="26"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="29"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="15"/>
+        <v>174</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="G161" s="26"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="29"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="15"/>
+        <v>175</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
       <c r="G162" s="26"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="29"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C163" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
       <c r="G163" s="26"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="29"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="15"/>
+        <v>177</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
       <c r="G164" s="26"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="29"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C165" s="17"/>
-      <c r="D165" s="15"/>
+        <v>178</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="G165" s="26"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="29"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
       <c r="G166" s="26"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="29"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C167" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
       <c r="G167" s="26"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="29"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C168" s="17"/>
+        <v>181</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
       <c r="G168" s="26"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="29"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C169" s="17"/>
-      <c r="D169" s="15"/>
+        <v>182</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="26"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="29"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
-      <c r="G170" s="26"/>
+      <c r="G170" s="26" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="29"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="15"/>
+        <v>184</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
       <c r="G171" s="26"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="29"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C172" s="17"/>
+        <v>242</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
       <c r="G172" s="26"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="29"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C173" s="17"/>
+        <v>243</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
       <c r="G173" s="26"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="29"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C174" s="17"/>
-      <c r="D174" s="15"/>
+        <v>244</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
       <c r="G174" s="26"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="29"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C175" s="17"/>
+        <v>245</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
       <c r="G175" s="26"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="30"/>
+      <c r="A176" s="32"/>
       <c r="B176" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C176" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
       <c r="G176" s="26"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="28" t="s">
-        <v>142</v>
+      <c r="A177" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>3</v>
@@ -3868,12 +4202,12 @@
       <c r="G177" s="26"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="29"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>3</v>
@@ -3883,12 +4217,12 @@
       <c r="G178" s="26"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="29"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -3896,12 +4230,12 @@
       <c r="G179" s="26"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="29"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>3</v>
@@ -3911,12 +4245,12 @@
       <c r="G180" s="26"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="29"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -3924,12 +4258,12 @@
       <c r="G181" s="26"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="29"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>3</v>
@@ -3939,12 +4273,12 @@
       <c r="G182" s="26"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="30"/>
+      <c r="A183" s="32"/>
       <c r="B183" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -3953,17 +4287,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3991,10 +4325,10 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se silver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130D3F6-9649-4790-9F10-EF508158A243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88381E-8592-4B5F-BB48-5277C8411F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題集の苦手分野" sheetId="2" r:id="rId1"/>
-    <sheet name="参考" sheetId="4" r:id="rId2"/>
-    <sheet name="テンプレート" sheetId="3" r:id="rId3"/>
+    <sheet name="総仕上げ①の苦手分野" sheetId="5" r:id="rId2"/>
+    <sheet name="総仕上げ➁の苦手分野" sheetId="6" r:id="rId3"/>
+    <sheet name="参考" sheetId="4" r:id="rId4"/>
+    <sheet name="テンプレート" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="318">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -369,35 +371,15 @@
     <t>1-7</t>
   </si>
   <si>
-    <t>A,C,E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A,C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1-8</t>
-  </si>
-  <si>
-    <t>A,B,E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B,E</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〇</t>
@@ -459,39 +441,15 @@
     <t>2-22</t>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BCDGI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>var</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://codezine.jp/article/detail/10872</t>
-  </si>
-  <si>
-    <t>A,B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://paiza.io/ja/projects/new?language=java</t>
@@ -505,14 +463,6 @@
     <rPh sb="2" eb="4">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -795,44 +745,6 @@
     <t>11-7</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGDFEC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
   </si>
   <si>
@@ -852,15 +764,7 @@
     <t>5-10</t>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ADE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BEF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -981,10 +885,6 @@
     <t>7-20</t>
   </si>
   <si>
-    <t>AD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10-13</t>
   </si>
   <si>
@@ -1019,26 +919,6 @@
   </si>
   <si>
     <t>9-19</t>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2つ選択</t>
@@ -1067,39 +947,289 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-30</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AD</t>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勘違いしないように</t>
+    <rPh sb="0" eb="2">
+      <t>カンチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースファイルモードが肝</t>
+    <rPh sb="11" eb="12">
+      <t>キモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルクォーテーションの扱いを忘れずに</t>
+    <rPh sb="12" eb="13">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1107,7 +1237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,6 +1290,13 @@
       <color theme="10"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1254,7 +1391,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1335,6 +1472,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1620,24 +1758,24 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="34.9375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.4375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="34.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.8984375" style="27" customWidth="1"/>
     <col min="8" max="8" width="2.5" customWidth="1"/>
     <col min="9" max="9" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="C1" s="28" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D1" s="13">
         <f>COUNTIF(D4:D402,"〇")</f>
@@ -1645,19 +1783,19 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="28" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D2" s="29">
         <f>1-D1/(COUNTA($B:$B)-1)</f>
@@ -1665,7 +1803,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>1</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -1673,7 +1811,7 @@
       </c>
       <c r="G2" s="25"/>
       <c r="I2" s="23" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1702,7 +1840,7 @@
         <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>64</v>
@@ -1717,12 +1855,14 @@
         <v>76</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="26"/>
       <c r="I4" s="19">
@@ -1736,7 +1876,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1749,7 +1889,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -1762,7 +1902,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1775,7 +1915,7 @@
         <v>79</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1788,14 +1928,18 @@
         <v>80</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="31"/>
@@ -1803,47 +1947,51 @@
         <v>81</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="26" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1851,16 +1999,14 @@
       <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="26" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1868,16 +2014,14 @@
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>109</v>
-      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="26" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1885,9 +2029,7 @@
       <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>110</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -1896,18 +2038,16 @@
     <row r="16" spans="1:12">
       <c r="A16" s="31"/>
       <c r="B16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>111</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="26" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1915,26 +2055,22 @@
       <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="26" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="31"/>
       <c r="B18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
@@ -1945,11 +2081,9 @@
     <row r="19" spans="1:7">
       <c r="A19" s="31"/>
       <c r="B19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -1958,11 +2092,9 @@
     <row r="20" spans="1:7">
       <c r="A20" s="31"/>
       <c r="B20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>114</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1971,11 +2103,9 @@
     <row r="21" spans="1:7">
       <c r="A21" s="31"/>
       <c r="B21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>115</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
         <v>3</v>
       </c>
@@ -1988,9 +2118,7 @@
       <c r="B22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>118</v>
-      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -1999,11 +2127,9 @@
     <row r="23" spans="1:7">
       <c r="A23" s="31"/>
       <c r="B23" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>119</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C23" s="17"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2012,11 +2138,9 @@
     <row r="24" spans="1:7">
       <c r="A24" s="31"/>
       <c r="B24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>108</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C24" s="17"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2027,9 +2151,7 @@
       <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>110</v>
-      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2038,11 +2160,9 @@
     <row r="26" spans="1:7">
       <c r="A26" s="31"/>
       <c r="B26" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>118</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -2051,11 +2171,9 @@
     <row r="27" spans="1:7">
       <c r="A27" s="31"/>
       <c r="B27" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -2064,11 +2182,9 @@
     <row r="28" spans="1:7">
       <c r="A28" s="31"/>
       <c r="B28" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2077,11 +2193,9 @@
     <row r="29" spans="1:7">
       <c r="A29" s="31"/>
       <c r="B29" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C29" s="17"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -2090,11 +2204,9 @@
     <row r="30" spans="1:7">
       <c r="A30" s="31"/>
       <c r="B30" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C30" s="17"/>
       <c r="D30" s="15" t="s">
         <v>3</v>
       </c>
@@ -2105,11 +2217,9 @@
     <row r="31" spans="1:7">
       <c r="A31" s="31"/>
       <c r="B31" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>115</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
@@ -2120,11 +2230,9 @@
     <row r="32" spans="1:7">
       <c r="A32" s="31"/>
       <c r="B32" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C32" s="17"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2133,11 +2241,9 @@
     <row r="33" spans="1:7">
       <c r="A33" s="32"/>
       <c r="B33" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -2150,9 +2256,7 @@
       <c r="B34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -2161,11 +2265,9 @@
     <row r="35" spans="1:7">
       <c r="A35" s="31"/>
       <c r="B35" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>192</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C35" s="17"/>
       <c r="D35" s="15" t="s">
         <v>3</v>
       </c>
@@ -2178,9 +2280,7 @@
       <c r="B36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>193</v>
-      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -2189,11 +2289,9 @@
     <row r="37" spans="1:7">
       <c r="A37" s="31"/>
       <c r="B37" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -2202,11 +2300,9 @@
     <row r="38" spans="1:7">
       <c r="A38" s="31"/>
       <c r="B38" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>192</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -2217,9 +2313,7 @@
       <c r="B39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="15" t="s">
         <v>3</v>
       </c>
@@ -2230,11 +2324,9 @@
     <row r="40" spans="1:7">
       <c r="A40" s="31"/>
       <c r="B40" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>196</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C40" s="17"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -2243,11 +2335,9 @@
     <row r="41" spans="1:7">
       <c r="A41" s="31"/>
       <c r="B41" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C41" s="17"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -2258,9 +2348,7 @@
       <c r="B42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="15" t="s">
         <v>3</v>
       </c>
@@ -2271,11 +2359,9 @@
     <row r="43" spans="1:7">
       <c r="A43" s="31"/>
       <c r="B43" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>192</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C43" s="17"/>
       <c r="D43" s="15" t="s">
         <v>3</v>
       </c>
@@ -2286,11 +2372,9 @@
     <row r="44" spans="1:7">
       <c r="A44" s="31"/>
       <c r="B44" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C44" s="17"/>
       <c r="D44" s="15" t="s">
         <v>3</v>
       </c>
@@ -2303,9 +2387,7 @@
       <c r="B45" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="C45" s="17"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -2316,16 +2398,14 @@
       <c r="B46" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="C46" s="17"/>
       <c r="D46" s="15" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="26" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2333,9 +2413,7 @@
       <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C47" s="17"/>
       <c r="D47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2348,9 +2426,7 @@
       <c r="B48" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -2361,9 +2437,7 @@
       <c r="B49" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="15" t="s">
         <v>3</v>
       </c>
@@ -2376,9 +2450,7 @@
       <c r="B50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
@@ -2387,11 +2459,9 @@
     <row r="51" spans="1:9">
       <c r="A51" s="31"/>
       <c r="B51" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>196</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2402,9 +2472,7 @@
       <c r="B52" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>198</v>
-      </c>
+      <c r="C52" s="17"/>
       <c r="D52" s="15" t="s">
         <v>3</v>
       </c>
@@ -2417,9 +2485,7 @@
       <c r="B53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>199</v>
-      </c>
+      <c r="C53" s="17"/>
       <c r="D53" s="15" t="s">
         <v>3</v>
       </c>
@@ -2430,11 +2496,9 @@
     <row r="54" spans="1:9">
       <c r="A54" s="32"/>
       <c r="B54" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>200</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C54" s="17"/>
       <c r="D54" s="15" t="s">
         <v>3</v>
       </c>
@@ -2444,14 +2508,12 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="30" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>195</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C55" s="17"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -2462,9 +2524,7 @@
       <c r="B56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>191</v>
-      </c>
+      <c r="C56" s="17"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
@@ -2475,9 +2535,7 @@
       <c r="B57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>200</v>
-      </c>
+      <c r="C57" s="17"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -2486,11 +2544,9 @@
     <row r="58" spans="1:9">
       <c r="A58" s="31"/>
       <c r="B58" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>192</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C58" s="17"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -2499,11 +2555,9 @@
     <row r="59" spans="1:9">
       <c r="A59" s="31"/>
       <c r="B59" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>200</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C59" s="17"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -2514,9 +2568,7 @@
       <c r="B60" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="C60" s="17"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -2527,9 +2579,7 @@
       <c r="B61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="C61" s="17"/>
       <c r="D61" s="15" t="s">
         <v>3</v>
       </c>
@@ -2543,9 +2593,7 @@
       <c r="B62" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>200</v>
-      </c>
+      <c r="C62" s="17"/>
       <c r="D62" s="15" t="s">
         <v>3</v>
       </c>
@@ -2558,9 +2606,7 @@
       <c r="B63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="C63" s="17"/>
       <c r="D63" s="15" t="s">
         <v>3</v>
       </c>
@@ -2573,9 +2619,7 @@
       <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>193</v>
-      </c>
+      <c r="C64" s="17"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -2586,9 +2630,7 @@
       <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="C65" s="17"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
@@ -2599,9 +2641,7 @@
       <c r="B66" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="C66" s="17"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
@@ -2612,9 +2652,7 @@
       <c r="B67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="C67" s="17"/>
       <c r="D67" s="15" t="s">
         <v>3</v>
       </c>
@@ -2625,11 +2663,9 @@
     <row r="68" spans="1:7">
       <c r="A68" s="31"/>
       <c r="B68" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>196</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C68" s="17"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
@@ -2640,9 +2676,7 @@
       <c r="B69" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="C69" s="17"/>
       <c r="D69" s="15" t="s">
         <v>3</v>
       </c>
@@ -2655,9 +2689,7 @@
       <c r="B70" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="C70" s="17"/>
       <c r="D70" s="15" t="s">
         <v>3</v>
       </c>
@@ -2668,11 +2700,9 @@
     <row r="71" spans="1:7">
       <c r="A71" s="32"/>
       <c r="B71" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C71" s="17"/>
       <c r="D71" s="15" t="s">
         <v>3</v>
       </c>
@@ -2682,14 +2712,12 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="C72" s="17"/>
       <c r="D72" s="15" t="s">
         <v>3</v>
       </c>
@@ -2700,11 +2728,9 @@
     <row r="73" spans="1:7">
       <c r="A73" s="31"/>
       <c r="B73" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
@@ -2717,9 +2743,7 @@
       <c r="B74" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="C74" s="17"/>
       <c r="D74" s="15" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2756,7 @@
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>209</v>
-      </c>
+      <c r="C75" s="17"/>
       <c r="D75" s="15" t="s">
         <v>3</v>
       </c>
@@ -2747,9 +2769,7 @@
       <c r="B76" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="15" t="s">
         <v>3</v>
       </c>
@@ -2760,11 +2780,9 @@
     <row r="77" spans="1:7">
       <c r="A77" s="31"/>
       <c r="B77" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C77" s="17"/>
       <c r="D77" s="15" t="s">
         <v>3</v>
       </c>
@@ -2777,9 +2795,7 @@
       <c r="B78" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>208</v>
-      </c>
+      <c r="C78" s="17"/>
       <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
@@ -2790,11 +2806,9 @@
     <row r="79" spans="1:7">
       <c r="A79" s="31"/>
       <c r="B79" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C79" s="17"/>
       <c r="D79" s="15" t="s">
         <v>3</v>
       </c>
@@ -2805,11 +2819,9 @@
     <row r="80" spans="1:7">
       <c r="A80" s="31"/>
       <c r="B80" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>196</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C80" s="17"/>
       <c r="D80" s="15" t="s">
         <v>3</v>
       </c>
@@ -2820,11 +2832,9 @@
     <row r="81" spans="1:7">
       <c r="A81" s="31"/>
       <c r="B81" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C81" s="17"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -2832,14 +2842,12 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="30" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C82" s="17"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -2848,11 +2856,9 @@
     <row r="83" spans="1:7">
       <c r="A83" s="31"/>
       <c r="B83" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C83" s="17"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -2863,9 +2869,7 @@
       <c r="B84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="C84" s="17"/>
       <c r="D84" s="15" t="s">
         <v>3</v>
       </c>
@@ -2876,11 +2880,9 @@
     <row r="85" spans="1:7">
       <c r="A85" s="31"/>
       <c r="B85" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="15" t="s">
         <v>3</v>
       </c>
@@ -2891,11 +2893,9 @@
     <row r="86" spans="1:7">
       <c r="A86" s="31"/>
       <c r="B86" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="15" t="s">
         <v>3</v>
       </c>
@@ -2908,9 +2908,7 @@
       <c r="B87" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>262</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="15" t="s">
         <v>3</v>
       </c>
@@ -2921,11 +2919,9 @@
     <row r="88" spans="1:7">
       <c r="A88" s="31"/>
       <c r="B88" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -2934,11 +2930,9 @@
     <row r="89" spans="1:7">
       <c r="A89" s="31"/>
       <c r="B89" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C89" s="17"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -2949,9 +2943,7 @@
       <c r="B90" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>263</v>
-      </c>
+      <c r="C90" s="17"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -2962,9 +2954,7 @@
       <c r="B91" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>262</v>
-      </c>
+      <c r="C91" s="17"/>
       <c r="D91" s="15" t="s">
         <v>3</v>
       </c>
@@ -2975,11 +2965,9 @@
     <row r="92" spans="1:7">
       <c r="A92" s="31"/>
       <c r="B92" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C92" s="17"/>
       <c r="D92" s="15" t="s">
         <v>3</v>
       </c>
@@ -2992,9 +2980,7 @@
       <c r="B93" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>264</v>
-      </c>
+      <c r="C93" s="17"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -3003,11 +2989,9 @@
     <row r="94" spans="1:7">
       <c r="A94" s="31"/>
       <c r="B94" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -3018,9 +3002,7 @@
       <c r="B95" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="17" t="s">
-        <v>254</v>
-      </c>
+      <c r="C95" s="17"/>
       <c r="D95" s="15" t="s">
         <v>3</v>
       </c>
@@ -3033,9 +3015,7 @@
       <c r="B96" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="17" t="s">
-        <v>258</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="15" t="s">
         <v>3</v>
       </c>
@@ -3048,9 +3028,7 @@
       <c r="B97" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>258</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="15" t="s">
         <v>3</v>
       </c>
@@ -3061,11 +3039,9 @@
     <row r="98" spans="1:7">
       <c r="A98" s="31"/>
       <c r="B98" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="15" t="s">
         <v>3</v>
       </c>
@@ -3076,11 +3052,9 @@
     <row r="99" spans="1:7">
       <c r="A99" s="31"/>
       <c r="B99" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="15" t="s">
         <v>3</v>
       </c>
@@ -3091,11 +3065,9 @@
     <row r="100" spans="1:7">
       <c r="A100" s="31"/>
       <c r="B100" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -3106,9 +3078,7 @@
       <c r="B101" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>255</v>
-      </c>
+      <c r="C101" s="17"/>
       <c r="D101" s="15" t="s">
         <v>3</v>
       </c>
@@ -3121,9 +3091,7 @@
       <c r="B102" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>261</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
@@ -3134,9 +3102,7 @@
       <c r="B103" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="15" t="s">
         <v>3</v>
       </c>
@@ -3149,9 +3115,7 @@
       <c r="B104" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>255</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="15" t="s">
         <v>3</v>
       </c>
@@ -3164,9 +3128,7 @@
       <c r="B105" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="C105" s="17"/>
       <c r="D105" s="15" t="s">
         <v>3</v>
       </c>
@@ -3179,9 +3141,7 @@
       <c r="B106" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>261</v>
-      </c>
+      <c r="C106" s="17"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
@@ -3190,11 +3150,9 @@
     <row r="107" spans="1:7">
       <c r="A107" s="31"/>
       <c r="B107" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C107" s="17"/>
       <c r="D107" s="15" t="s">
         <v>3</v>
       </c>
@@ -3205,11 +3163,9 @@
     <row r="108" spans="1:7">
       <c r="A108" s="31"/>
       <c r="B108" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C108" s="17"/>
       <c r="D108" s="15" t="s">
         <v>3</v>
       </c>
@@ -3220,11 +3176,9 @@
     <row r="109" spans="1:7">
       <c r="A109" s="31"/>
       <c r="B109" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C109" s="17"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -3233,11 +3187,9 @@
     <row r="110" spans="1:7">
       <c r="A110" s="31"/>
       <c r="B110" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C110" s="17"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -3246,11 +3198,9 @@
     <row r="111" spans="1:7">
       <c r="A111" s="32"/>
       <c r="B111" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -3258,14 +3208,12 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="33" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C112" s="17"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -3276,9 +3224,7 @@
       <c r="B113" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="C113" s="17"/>
       <c r="D113" s="15" t="s">
         <v>3</v>
       </c>
@@ -3289,11 +3235,9 @@
     <row r="114" spans="1:7">
       <c r="A114" s="34"/>
       <c r="B114" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>267</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C114" s="17"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
@@ -3302,11 +3246,9 @@
     <row r="115" spans="1:7">
       <c r="A115" s="34"/>
       <c r="B115" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C115" s="17"/>
       <c r="D115" s="15" t="s">
         <v>3</v>
       </c>
@@ -3317,11 +3259,9 @@
     <row r="116" spans="1:7">
       <c r="A116" s="34"/>
       <c r="B116" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C116" s="17"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -3330,11 +3270,9 @@
     <row r="117" spans="1:7">
       <c r="A117" s="34"/>
       <c r="B117" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C117" s="17"/>
       <c r="D117" s="15" t="s">
         <v>3</v>
       </c>
@@ -3345,11 +3283,9 @@
     <row r="118" spans="1:7">
       <c r="A118" s="34"/>
       <c r="B118" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C118" s="17"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -3360,9 +3296,7 @@
       <c r="B119" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C119" s="17" t="s">
-        <v>268</v>
-      </c>
+      <c r="C119" s="17"/>
       <c r="D119" s="15" t="s">
         <v>3</v>
       </c>
@@ -3373,11 +3307,9 @@
     <row r="120" spans="1:7">
       <c r="A120" s="34"/>
       <c r="B120" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C120" s="17"/>
       <c r="D120" s="15" t="s">
         <v>3</v>
       </c>
@@ -3388,11 +3320,9 @@
     <row r="121" spans="1:7">
       <c r="A121" s="34"/>
       <c r="B121" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -3401,11 +3331,9 @@
     <row r="122" spans="1:7">
       <c r="A122" s="34"/>
       <c r="B122" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="15" t="s">
         <v>3</v>
       </c>
@@ -3418,9 +3346,7 @@
       <c r="B123" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="C123" s="17"/>
       <c r="D123" s="15" t="s">
         <v>3</v>
       </c>
@@ -3431,11 +3357,9 @@
     <row r="124" spans="1:7">
       <c r="A124" s="34"/>
       <c r="B124" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C124" s="17"/>
       <c r="D124" s="15" t="s">
         <v>3</v>
       </c>
@@ -3446,11 +3370,9 @@
     <row r="125" spans="1:7">
       <c r="A125" s="34"/>
       <c r="B125" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C125" s="17"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
@@ -3459,11 +3381,9 @@
     <row r="126" spans="1:7">
       <c r="A126" s="34"/>
       <c r="B126" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C126" s="17"/>
       <c r="D126" s="15" t="s">
         <v>3</v>
       </c>
@@ -3474,11 +3394,9 @@
     <row r="127" spans="1:7">
       <c r="A127" s="34"/>
       <c r="B127" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>254</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C127" s="17"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
@@ -3487,11 +3405,9 @@
     <row r="128" spans="1:7">
       <c r="A128" s="34"/>
       <c r="B128" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C128" s="17"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
@@ -3500,11 +3416,9 @@
     <row r="129" spans="1:9">
       <c r="A129" s="34"/>
       <c r="B129" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>269</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C129" s="17"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
@@ -3513,11 +3427,9 @@
     <row r="130" spans="1:9">
       <c r="A130" s="34"/>
       <c r="B130" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C130" s="17"/>
       <c r="D130" s="15" t="s">
         <v>3</v>
       </c>
@@ -3528,11 +3440,9 @@
     <row r="131" spans="1:9">
       <c r="A131" s="34"/>
       <c r="B131" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
@@ -3543,9 +3453,7 @@
       <c r="B132" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
@@ -3553,14 +3461,12 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C133" s="17"/>
       <c r="D133" s="15" t="s">
         <v>3</v>
       </c>
@@ -3571,11 +3477,9 @@
     <row r="134" spans="1:9">
       <c r="A134" s="31"/>
       <c r="B134" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>196</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C134" s="17"/>
       <c r="D134" s="15" t="s">
         <v>3</v>
       </c>
@@ -3586,11 +3490,9 @@
     <row r="135" spans="1:9">
       <c r="A135" s="31"/>
       <c r="B135" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C135" s="17"/>
       <c r="D135" s="15" t="s">
         <v>3</v>
       </c>
@@ -3601,11 +3503,9 @@
     <row r="136" spans="1:9">
       <c r="A136" s="31"/>
       <c r="B136" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
@@ -3614,11 +3514,9 @@
     <row r="137" spans="1:9">
       <c r="A137" s="31"/>
       <c r="B137" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C137" s="17"/>
       <c r="D137" s="15" t="s">
         <v>3</v>
       </c>
@@ -3630,11 +3528,9 @@
     <row r="138" spans="1:9">
       <c r="A138" s="31"/>
       <c r="B138" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C138" s="17"/>
       <c r="D138" s="15" t="s">
         <v>3</v>
       </c>
@@ -3645,11 +3541,9 @@
     <row r="139" spans="1:9">
       <c r="A139" s="31"/>
       <c r="B139" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C139" s="17"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
@@ -3659,11 +3553,9 @@
     <row r="140" spans="1:9">
       <c r="A140" s="31"/>
       <c r="B140" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C140" s="17"/>
       <c r="D140" s="15" t="s">
         <v>3</v>
       </c>
@@ -3674,14 +3566,12 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C141" s="17"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
@@ -3690,11 +3580,9 @@
     <row r="142" spans="1:9">
       <c r="A142" s="31"/>
       <c r="B142" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C142" s="17"/>
       <c r="D142" s="15" t="s">
         <v>3</v>
       </c>
@@ -3705,11 +3593,9 @@
     <row r="143" spans="1:9">
       <c r="A143" s="31"/>
       <c r="B143" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C143" s="17"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
@@ -3718,11 +3604,9 @@
     <row r="144" spans="1:9">
       <c r="A144" s="31"/>
       <c r="B144" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C144" s="17"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
@@ -3731,11 +3615,9 @@
     <row r="145" spans="1:7">
       <c r="A145" s="31"/>
       <c r="B145" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C145" s="17"/>
       <c r="D145" s="15" t="s">
         <v>3</v>
       </c>
@@ -3746,11 +3628,9 @@
     <row r="146" spans="1:7">
       <c r="A146" s="31"/>
       <c r="B146" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C146" s="17"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
@@ -3759,11 +3639,9 @@
     <row r="147" spans="1:7">
       <c r="A147" s="31"/>
       <c r="B147" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C147" s="17"/>
       <c r="D147" s="15" t="s">
         <v>3</v>
       </c>
@@ -3774,11 +3652,9 @@
     <row r="148" spans="1:7">
       <c r="A148" s="31"/>
       <c r="B148" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C148" s="17"/>
       <c r="D148" s="15" t="s">
         <v>3</v>
       </c>
@@ -3789,11 +3665,9 @@
     <row r="149" spans="1:7">
       <c r="A149" s="31"/>
       <c r="B149" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C149" s="17"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
@@ -3802,11 +3676,9 @@
     <row r="150" spans="1:7">
       <c r="A150" s="31"/>
       <c r="B150" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C150" s="17"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
@@ -3815,11 +3687,9 @@
     <row r="151" spans="1:7">
       <c r="A151" s="31"/>
       <c r="B151" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C151" s="17"/>
       <c r="D151" s="15" t="s">
         <v>3</v>
       </c>
@@ -3830,11 +3700,9 @@
     <row r="152" spans="1:7">
       <c r="A152" s="31"/>
       <c r="B152" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C152" s="17"/>
       <c r="D152" s="15" t="s">
         <v>3</v>
       </c>
@@ -3845,11 +3713,9 @@
     <row r="153" spans="1:7">
       <c r="A153" s="31"/>
       <c r="B153" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C153" s="17"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
@@ -3858,11 +3724,9 @@
     <row r="154" spans="1:7">
       <c r="A154" s="31"/>
       <c r="B154" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>269</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C154" s="17"/>
       <c r="D154" s="15" t="s">
         <v>3</v>
       </c>
@@ -3873,11 +3737,9 @@
     <row r="155" spans="1:7">
       <c r="A155" s="31"/>
       <c r="B155" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C155" s="17"/>
       <c r="D155" s="15" t="s">
         <v>3</v>
       </c>
@@ -3888,11 +3750,9 @@
     <row r="156" spans="1:7">
       <c r="A156" s="31"/>
       <c r="B156" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C156" s="17"/>
       <c r="D156" s="15" t="s">
         <v>3</v>
       </c>
@@ -3903,11 +3763,9 @@
     <row r="157" spans="1:7">
       <c r="A157" s="31"/>
       <c r="B157" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C157" s="17"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
@@ -3916,11 +3774,9 @@
     <row r="158" spans="1:7">
       <c r="A158" s="31"/>
       <c r="B158" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C158" s="17"/>
       <c r="D158" s="15" t="s">
         <v>3</v>
       </c>
@@ -3931,11 +3787,9 @@
     <row r="159" spans="1:7">
       <c r="A159" s="32"/>
       <c r="B159" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C159" s="17"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
@@ -3943,14 +3797,12 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="30" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>254</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C160" s="17"/>
       <c r="D160" s="15" t="s">
         <v>3</v>
       </c>
@@ -3961,11 +3813,9 @@
     <row r="161" spans="1:7">
       <c r="A161" s="31"/>
       <c r="B161" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="15" t="s">
         <v>3</v>
       </c>
@@ -3976,11 +3826,9 @@
     <row r="162" spans="1:7">
       <c r="A162" s="31"/>
       <c r="B162" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="15" t="s">
         <v>3</v>
       </c>
@@ -3991,11 +3839,9 @@
     <row r="163" spans="1:7">
       <c r="A163" s="31"/>
       <c r="B163" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
@@ -4004,11 +3850,9 @@
     <row r="164" spans="1:7">
       <c r="A164" s="31"/>
       <c r="B164" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C164" s="17"/>
       <c r="D164" s="15" t="s">
         <v>3</v>
       </c>
@@ -4019,11 +3863,9 @@
     <row r="165" spans="1:7">
       <c r="A165" s="31"/>
       <c r="B165" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="15" t="s">
         <v>3</v>
       </c>
@@ -4034,11 +3876,9 @@
     <row r="166" spans="1:7">
       <c r="A166" s="31"/>
       <c r="B166" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
@@ -4047,11 +3887,9 @@
     <row r="167" spans="1:7">
       <c r="A167" s="31"/>
       <c r="B167" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -4060,11 +3898,9 @@
     <row r="168" spans="1:7">
       <c r="A168" s="31"/>
       <c r="B168" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
@@ -4073,11 +3909,9 @@
     <row r="169" spans="1:7">
       <c r="A169" s="31"/>
       <c r="B169" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="15" t="s">
         <v>3</v>
       </c>
@@ -4088,28 +3922,24 @@
     <row r="170" spans="1:7">
       <c r="A170" s="31"/>
       <c r="B170" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
       <c r="G170" s="26" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="31"/>
       <c r="B171" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="15" t="s">
         <v>3</v>
       </c>
@@ -4120,11 +3950,9 @@
     <row r="172" spans="1:7">
       <c r="A172" s="31"/>
       <c r="B172" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
@@ -4133,11 +3961,9 @@
     <row r="173" spans="1:7">
       <c r="A173" s="31"/>
       <c r="B173" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C173" s="17"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
@@ -4146,11 +3972,9 @@
     <row r="174" spans="1:7">
       <c r="A174" s="31"/>
       <c r="B174" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C174" s="17"/>
       <c r="D174" s="15" t="s">
         <v>3</v>
       </c>
@@ -4161,11 +3985,9 @@
     <row r="175" spans="1:7">
       <c r="A175" s="31"/>
       <c r="B175" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C175" s="17"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
@@ -4174,11 +3996,9 @@
     <row r="176" spans="1:7">
       <c r="A176" s="32"/>
       <c r="B176" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>258</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C176" s="17"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
@@ -4186,14 +4006,12 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="30" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>241</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C177" s="17"/>
       <c r="D177" s="15" t="s">
         <v>3</v>
       </c>
@@ -4204,11 +4022,9 @@
     <row r="178" spans="1:7">
       <c r="A178" s="31"/>
       <c r="B178" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>192</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C178" s="17"/>
       <c r="D178" s="15" t="s">
         <v>3</v>
       </c>
@@ -4219,11 +4035,9 @@
     <row r="179" spans="1:7">
       <c r="A179" s="31"/>
       <c r="B179" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C179" s="17"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
@@ -4232,11 +4046,9 @@
     <row r="180" spans="1:7">
       <c r="A180" s="31"/>
       <c r="B180" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>196</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C180" s="17"/>
       <c r="D180" s="15" t="s">
         <v>3</v>
       </c>
@@ -4247,11 +4059,9 @@
     <row r="181" spans="1:7">
       <c r="A181" s="31"/>
       <c r="B181" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C181" s="17"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
@@ -4260,11 +4070,9 @@
     <row r="182" spans="1:7">
       <c r="A182" s="31"/>
       <c r="B182" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C182" s="17"/>
       <c r="D182" s="15" t="s">
         <v>3</v>
       </c>
@@ -4275,11 +4083,9 @@
     <row r="183" spans="1:7">
       <c r="A183" s="32"/>
       <c r="B183" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C183" s="17"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
@@ -4287,17 +4093,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4306,6 +4112,1820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC344B2-D044-45A2-8D57-3C093A72067E}">
+  <dimension ref="A1:K83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="8.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.59765625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="13">
+        <f>COUNTIF(C4:C302,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="13">
+        <f t="shared" ref="D1:E1" si="0">COUNTIF(D4:D302,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="29">
+        <f>1-C1/(COUNTA($A:$A)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <f>1-D1/(COUNTA($A:$A)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <f>1-E1/(COUNTA($A:$A)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="H2" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="26"/>
+      <c r="H4" s="19">
+        <f>COUNTA($A:$A)-1</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="26"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DB4D28-500B-4AAB-B8F3-681CBF9E3463}">
+  <dimension ref="A1:K83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="6.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="8.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.59765625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="13">
+        <f>COUNTIF(C4:C302,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="13">
+        <f t="shared" ref="D1:E1" si="0">COUNTIF(D4:D302,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="29">
+        <f>1-C1/(COUNTA($A:$A)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <f>1-D1/(COUNTA($A:$A)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <f>1-E1/(COUNTA($A:$A)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="H2" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="26"/>
+      <c r="H4" s="19">
+        <f>COUNTA($A:$A)-1</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="26"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6279B19D-85FE-48D7-B0EB-DAF52D54D26C}">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -4313,22 +5933,22 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4341,7 +5961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FDF08A-11C1-405C-B417-AE0AEEE28106}">
   <dimension ref="A1:G81"/>
   <sheetViews>
@@ -4349,12 +5969,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.8125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="4.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88381E-8592-4B5F-BB48-5277C8411F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4BBB1-FA5F-4AD0-BCB1-5371B661F41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="321">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1205,10 +1205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勘違いしないように</t>
     <rPh sb="0" eb="2">
       <t>カンチガ</t>
@@ -1230,6 +1226,22 @@
     <rPh sb="15" eb="16">
       <t>ワス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACHEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1454,6 +1466,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1472,7 +1485,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1758,7 +1770,7 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1783,7 +1795,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1803,7 +1815,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.98333333333333328</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -1840,7 +1852,7 @@
         <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>64</v>
@@ -1848,7 +1860,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1871,7 +1883,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
@@ -1884,7 +1896,7 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
@@ -1897,7 +1909,7 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="11" t="s">
         <v>78</v>
       </c>
@@ -1910,7 +1922,7 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="11" t="s">
         <v>79</v>
       </c>
@@ -1923,7 +1935,7 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
@@ -1938,11 +1950,11 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="11" t="s">
         <v>81</v>
       </c>
@@ -1957,15 +1969,15 @@
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1974,17 +1986,19 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1995,11 +2009,13 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
@@ -2010,52 +2026,64 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>318</v>
+      </c>
       <c r="D14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>319</v>
+      </c>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D17" s="15" t="s">
         <v>3</v>
       </c>
@@ -2066,11 +2094,13 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
@@ -2079,18 +2109,20 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="17" t="s">
         <v>90</v>
       </c>
@@ -2101,7 +2133,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="17" t="s">
         <v>91</v>
       </c>
@@ -2114,7 +2146,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="17" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2157,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="17" t="s">
         <v>92</v>
       </c>
@@ -2136,7 +2168,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="17" t="s">
         <v>93</v>
       </c>
@@ -2147,7 +2179,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2190,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="17" t="s">
         <v>94</v>
       </c>
@@ -2169,7 +2201,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="17" t="s">
         <v>95</v>
       </c>
@@ -2180,7 +2212,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="17" t="s">
         <v>96</v>
       </c>
@@ -2191,7 +2223,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="17" t="s">
         <v>97</v>
       </c>
@@ -2202,7 +2234,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="17" t="s">
         <v>98</v>
       </c>
@@ -2215,7 +2247,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="17" t="s">
         <v>99</v>
       </c>
@@ -2228,7 +2260,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="17" t="s">
         <v>100</v>
       </c>
@@ -2239,7 +2271,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="32"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="17" t="s">
         <v>101</v>
       </c>
@@ -2250,7 +2282,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -2263,7 +2295,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="17" t="s">
         <v>107</v>
       </c>
@@ -2276,7 +2308,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="17" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2319,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="17" t="s">
         <v>108</v>
       </c>
@@ -2298,7 +2330,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="31"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="17" t="s">
         <v>109</v>
       </c>
@@ -2309,7 +2341,7 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="31"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
       </c>
@@ -2322,7 +2354,7 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="17" t="s">
         <v>110</v>
       </c>
@@ -2333,7 +2365,7 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="17" t="s">
         <v>111</v>
       </c>
@@ -2344,7 +2376,7 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="17" t="s">
         <v>22</v>
       </c>
@@ -2357,7 +2389,7 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="17" t="s">
         <v>112</v>
       </c>
@@ -2370,7 +2402,7 @@
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="17" t="s">
         <v>113</v>
       </c>
@@ -2383,7 +2415,7 @@
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="17" t="s">
         <v>23</v>
       </c>
@@ -2394,7 +2426,7 @@
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="17" t="s">
         <v>65</v>
       </c>
@@ -2409,7 +2441,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
@@ -2422,7 +2454,7 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="17" t="s">
         <v>66</v>
       </c>
@@ -2433,7 +2465,7 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="17" t="s">
         <v>25</v>
       </c>
@@ -2446,7 +2478,7 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="17" t="s">
         <v>26</v>
       </c>
@@ -2457,7 +2489,7 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="17" t="s">
         <v>114</v>
       </c>
@@ -2468,7 +2500,7 @@
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="17" t="s">
         <v>67</v>
       </c>
@@ -2481,7 +2513,7 @@
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="17" t="s">
         <v>27</v>
       </c>
@@ -2494,7 +2526,7 @@
       <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="32"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="17" t="s">
         <v>115</v>
       </c>
@@ -2507,7 +2539,7 @@
       <c r="G54" s="26"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -2520,7 +2552,7 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="31"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="11" t="s">
         <v>28</v>
       </c>
@@ -2531,7 +2563,7 @@
       <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="31"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="11" t="s">
         <v>29</v>
       </c>
@@ -2542,7 +2574,7 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="31"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="11" t="s">
         <v>117</v>
       </c>
@@ -2553,7 +2585,7 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="31"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="11" t="s">
         <v>118</v>
       </c>
@@ -2564,7 +2596,7 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="11" t="s">
         <v>30</v>
       </c>
@@ -2575,7 +2607,7 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="11" t="s">
         <v>31</v>
       </c>
@@ -2589,7 +2621,7 @@
       <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="11" t="s">
         <v>32</v>
       </c>
@@ -2602,7 +2634,7 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="31"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="11" t="s">
         <v>33</v>
       </c>
@@ -2615,7 +2647,7 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
@@ -2626,7 +2658,7 @@
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="31"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
@@ -2637,7 +2669,7 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="11" t="s">
         <v>35</v>
       </c>
@@ -2648,7 +2680,7 @@
       <c r="G66" s="26"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="11" t="s">
         <v>36</v>
       </c>
@@ -2661,7 +2693,7 @@
       <c r="G67" s="26"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="11" t="s">
         <v>119</v>
       </c>
@@ -2672,7 +2704,7 @@
       <c r="G68" s="26"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="31"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="11" t="s">
         <v>37</v>
       </c>
@@ -2685,7 +2717,7 @@
       <c r="G69" s="26"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="11" t="s">
         <v>38</v>
       </c>
@@ -2698,7 +2730,7 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="32"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="11" t="s">
         <v>120</v>
       </c>
@@ -2711,7 +2743,7 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="31" t="s">
         <v>122</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -2726,7 +2758,7 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="31"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="11" t="s">
         <v>140</v>
       </c>
@@ -2739,7 +2771,7 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="31"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="11" t="s">
         <v>40</v>
       </c>
@@ -2752,7 +2784,7 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="31"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
@@ -2765,7 +2797,7 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="31"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="11" t="s">
         <v>42</v>
       </c>
@@ -2778,7 +2810,7 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="31"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="11" t="s">
         <v>180</v>
       </c>
@@ -2791,7 +2823,7 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="31"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="11" t="s">
         <v>43</v>
       </c>
@@ -2804,7 +2836,7 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="31"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="11" t="s">
         <v>181</v>
       </c>
@@ -2817,7 +2849,7 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="31"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="11" t="s">
         <v>182</v>
       </c>
@@ -2830,7 +2862,7 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="31"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="11" t="s">
         <v>183</v>
       </c>
@@ -2841,7 +2873,7 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="31" t="s">
         <v>123</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -2854,7 +2886,7 @@
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="31"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="11" t="s">
         <v>141</v>
       </c>
@@ -2865,7 +2897,7 @@
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="31"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="11" t="s">
         <v>44</v>
       </c>
@@ -2878,7 +2910,7 @@
       <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="31"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="11" t="s">
         <v>185</v>
       </c>
@@ -2891,7 +2923,7 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="31"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="11" t="s">
         <v>186</v>
       </c>
@@ -2904,7 +2936,7 @@
       <c r="G86" s="26"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="31"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="11" t="s">
         <v>45</v>
       </c>
@@ -2917,7 +2949,7 @@
       <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="31"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="11" t="s">
         <v>187</v>
       </c>
@@ -2928,7 +2960,7 @@
       <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="31"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="11" t="s">
         <v>188</v>
       </c>
@@ -2939,7 +2971,7 @@
       <c r="G89" s="26"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="31"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="11" t="s">
         <v>46</v>
       </c>
@@ -2950,7 +2982,7 @@
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="31"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="11" t="s">
         <v>47</v>
       </c>
@@ -2963,7 +2995,7 @@
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="31"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="11" t="s">
         <v>189</v>
       </c>
@@ -2976,7 +3008,7 @@
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="31"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="11" t="s">
         <v>48</v>
       </c>
@@ -2987,7 +3019,7 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="31"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="11" t="s">
         <v>190</v>
       </c>
@@ -2998,7 +3030,7 @@
       <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="31"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="11" t="s">
         <v>49</v>
       </c>
@@ -3011,7 +3043,7 @@
       <c r="G95" s="26"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="31"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="11" t="s">
         <v>50</v>
       </c>
@@ -3024,7 +3056,7 @@
       <c r="G96" s="26"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="31"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="11" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3069,7 @@
       <c r="G97" s="26"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="31"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="11" t="s">
         <v>191</v>
       </c>
@@ -3050,7 +3082,7 @@
       <c r="G98" s="26"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="31"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="11" t="s">
         <v>192</v>
       </c>
@@ -3063,7 +3095,7 @@
       <c r="G99" s="26"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="31"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="11" t="s">
         <v>193</v>
       </c>
@@ -3074,7 +3106,7 @@
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="31"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="11" t="s">
         <v>52</v>
       </c>
@@ -3087,7 +3119,7 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="31"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="11" t="s">
         <v>53</v>
       </c>
@@ -3098,7 +3130,7 @@
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="31"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="11" t="s">
         <v>54</v>
       </c>
@@ -3111,7 +3143,7 @@
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="31"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="11" t="s">
         <v>55</v>
       </c>
@@ -3124,7 +3156,7 @@
       <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="31"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="11" t="s">
         <v>56</v>
       </c>
@@ -3137,7 +3169,7 @@
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="11" t="s">
         <v>69</v>
       </c>
@@ -3148,7 +3180,7 @@
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="31"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="11" t="s">
         <v>194</v>
       </c>
@@ -3161,7 +3193,7 @@
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="31"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="11" t="s">
         <v>195</v>
       </c>
@@ -3174,7 +3206,7 @@
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="31"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="11" t="s">
         <v>196</v>
       </c>
@@ -3185,7 +3217,7 @@
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="31"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="11" t="s">
         <v>197</v>
       </c>
@@ -3196,7 +3228,7 @@
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="32"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="11" t="s">
         <v>230</v>
       </c>
@@ -3207,7 +3239,7 @@
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -3220,7 +3252,7 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="34"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="17" t="s">
         <v>57</v>
       </c>
@@ -3233,7 +3265,7 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="34"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="17" t="s">
         <v>142</v>
       </c>
@@ -3244,7 +3276,7 @@
       <c r="G114" s="26"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="34"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="17" t="s">
         <v>201</v>
       </c>
@@ -3257,7 +3289,7 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="34"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="17" t="s">
         <v>202</v>
       </c>
@@ -3268,7 +3300,7 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="34"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="17" t="s">
         <v>203</v>
       </c>
@@ -3281,7 +3313,7 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="34"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="17" t="s">
         <v>204</v>
       </c>
@@ -3292,7 +3324,7 @@
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="34"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="17" t="s">
         <v>58</v>
       </c>
@@ -3305,7 +3337,7 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="34"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="17" t="s">
         <v>205</v>
       </c>
@@ -3318,7 +3350,7 @@
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="34"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="17" t="s">
         <v>206</v>
       </c>
@@ -3329,7 +3361,7 @@
       <c r="G121" s="26"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="34"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="17" t="s">
         <v>207</v>
       </c>
@@ -3342,7 +3374,7 @@
       <c r="G122" s="26"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="34"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="17" t="s">
         <v>59</v>
       </c>
@@ -3355,7 +3387,7 @@
       <c r="G123" s="26"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="34"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="17" t="s">
         <v>208</v>
       </c>
@@ -3368,7 +3400,7 @@
       <c r="G124" s="26"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="34"/>
+      <c r="A125" s="35"/>
       <c r="B125" s="17" t="s">
         <v>209</v>
       </c>
@@ -3379,7 +3411,7 @@
       <c r="G125" s="26"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="34"/>
+      <c r="A126" s="35"/>
       <c r="B126" s="17" t="s">
         <v>210</v>
       </c>
@@ -3392,7 +3424,7 @@
       <c r="G126" s="26"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="34"/>
+      <c r="A127" s="35"/>
       <c r="B127" s="17" t="s">
         <v>211</v>
       </c>
@@ -3403,7 +3435,7 @@
       <c r="G127" s="26"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="34"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="17" t="s">
         <v>212</v>
       </c>
@@ -3414,7 +3446,7 @@
       <c r="G128" s="26"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="34"/>
+      <c r="A129" s="35"/>
       <c r="B129" s="17" t="s">
         <v>213</v>
       </c>
@@ -3425,7 +3457,7 @@
       <c r="G129" s="26"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="34"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="17" t="s">
         <v>214</v>
       </c>
@@ -3438,7 +3470,7 @@
       <c r="G130" s="26"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="34"/>
+      <c r="A131" s="35"/>
       <c r="B131" s="17" t="s">
         <v>215</v>
       </c>
@@ -3449,7 +3481,7 @@
       <c r="G131" s="26"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="35"/>
+      <c r="A132" s="36"/>
       <c r="B132" s="17" t="s">
         <v>60</v>
       </c>
@@ -3460,7 +3492,7 @@
       <c r="G132" s="26"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B133" s="17" t="s">
@@ -3475,7 +3507,7 @@
       <c r="G133" s="26"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="31"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="17" t="s">
         <v>143</v>
       </c>
@@ -3488,7 +3520,7 @@
       <c r="G134" s="26"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="31"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="17" t="s">
         <v>144</v>
       </c>
@@ -3501,7 +3533,7 @@
       <c r="G135" s="26"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="31"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="17" t="s">
         <v>145</v>
       </c>
@@ -3512,7 +3544,7 @@
       <c r="G136" s="26"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="31"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="17" t="s">
         <v>146</v>
       </c>
@@ -3526,7 +3558,7 @@
       <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="31"/>
+      <c r="A138" s="32"/>
       <c r="B138" s="17" t="s">
         <v>147</v>
       </c>
@@ -3539,7 +3571,7 @@
       <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="31"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="17" t="s">
         <v>148</v>
       </c>
@@ -3551,7 +3583,7 @@
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="31"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="17" t="s">
         <v>149</v>
       </c>
@@ -3565,7 +3597,7 @@
       <c r="I140" s="21"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B141" s="17" t="s">
@@ -3578,7 +3610,7 @@
       <c r="G141" s="26"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="31"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="17" t="s">
         <v>150</v>
       </c>
@@ -3591,7 +3623,7 @@
       <c r="G142" s="26"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="31"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="17" t="s">
         <v>151</v>
       </c>
@@ -3602,7 +3634,7 @@
       <c r="G143" s="26"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="31"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="17" t="s">
         <v>152</v>
       </c>
@@ -3613,7 +3645,7 @@
       <c r="G144" s="26"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="31"/>
+      <c r="A145" s="32"/>
       <c r="B145" s="17" t="s">
         <v>153</v>
       </c>
@@ -3626,7 +3658,7 @@
       <c r="G145" s="26"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="31"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="17" t="s">
         <v>154</v>
       </c>
@@ -3637,7 +3669,7 @@
       <c r="G146" s="26"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="31"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="17" t="s">
         <v>155</v>
       </c>
@@ -3650,7 +3682,7 @@
       <c r="G147" s="26"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="31"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="17" t="s">
         <v>156</v>
       </c>
@@ -3663,7 +3695,7 @@
       <c r="G148" s="26"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="31"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="17" t="s">
         <v>157</v>
       </c>
@@ -3674,7 +3706,7 @@
       <c r="G149" s="26"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="31"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="17" t="s">
         <v>158</v>
       </c>
@@ -3685,7 +3717,7 @@
       <c r="G150" s="26"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="31"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="17" t="s">
         <v>159</v>
       </c>
@@ -3698,7 +3730,7 @@
       <c r="G151" s="26"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="31"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="17" t="s">
         <v>160</v>
       </c>
@@ -3711,7 +3743,7 @@
       <c r="G152" s="26"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="31"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="17" t="s">
         <v>221</v>
       </c>
@@ -3722,7 +3754,7 @@
       <c r="G153" s="26"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="31"/>
+      <c r="A154" s="32"/>
       <c r="B154" s="17" t="s">
         <v>222</v>
       </c>
@@ -3735,7 +3767,7 @@
       <c r="G154" s="26"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="31"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="17" t="s">
         <v>223</v>
       </c>
@@ -3748,7 +3780,7 @@
       <c r="G155" s="26"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="31"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="17" t="s">
         <v>224</v>
       </c>
@@ -3761,7 +3793,7 @@
       <c r="G156" s="26"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="31"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="17" t="s">
         <v>225</v>
       </c>
@@ -3772,7 +3804,7 @@
       <c r="G157" s="26"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="31"/>
+      <c r="A158" s="32"/>
       <c r="B158" s="17" t="s">
         <v>226</v>
       </c>
@@ -3785,7 +3817,7 @@
       <c r="G158" s="26"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="32"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="17" t="s">
         <v>227</v>
       </c>
@@ -3796,7 +3828,7 @@
       <c r="G159" s="26"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="31" t="s">
         <v>127</v>
       </c>
       <c r="B160" s="17" t="s">
@@ -3811,7 +3843,7 @@
       <c r="G160" s="26"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="31"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="17" t="s">
         <v>161</v>
       </c>
@@ -3824,7 +3856,7 @@
       <c r="G161" s="26"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="31"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="17" t="s">
         <v>162</v>
       </c>
@@ -3837,7 +3869,7 @@
       <c r="G162" s="26"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="31"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="17" t="s">
         <v>163</v>
       </c>
@@ -3848,7 +3880,7 @@
       <c r="G163" s="26"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="31"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="17" t="s">
         <v>164</v>
       </c>
@@ -3861,7 +3893,7 @@
       <c r="G164" s="26"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="31"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="17" t="s">
         <v>165</v>
       </c>
@@ -3874,7 +3906,7 @@
       <c r="G165" s="26"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="31"/>
+      <c r="A166" s="32"/>
       <c r="B166" s="17" t="s">
         <v>166</v>
       </c>
@@ -3885,7 +3917,7 @@
       <c r="G166" s="26"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="31"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="17" t="s">
         <v>167</v>
       </c>
@@ -3896,7 +3928,7 @@
       <c r="G167" s="26"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="31"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="17" t="s">
         <v>168</v>
       </c>
@@ -3907,7 +3939,7 @@
       <c r="G168" s="26"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="31"/>
+      <c r="A169" s="32"/>
       <c r="B169" s="17" t="s">
         <v>169</v>
       </c>
@@ -3920,7 +3952,7 @@
       <c r="G169" s="26"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="31"/>
+      <c r="A170" s="32"/>
       <c r="B170" s="17" t="s">
         <v>170</v>
       </c>
@@ -3935,7 +3967,7 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="31"/>
+      <c r="A171" s="32"/>
       <c r="B171" s="17" t="s">
         <v>171</v>
       </c>
@@ -3948,7 +3980,7 @@
       <c r="G171" s="26"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="31"/>
+      <c r="A172" s="32"/>
       <c r="B172" s="17" t="s">
         <v>216</v>
       </c>
@@ -3959,7 +3991,7 @@
       <c r="G172" s="26"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="31"/>
+      <c r="A173" s="32"/>
       <c r="B173" s="17" t="s">
         <v>217</v>
       </c>
@@ -3970,7 +4002,7 @@
       <c r="G173" s="26"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="31"/>
+      <c r="A174" s="32"/>
       <c r="B174" s="17" t="s">
         <v>218</v>
       </c>
@@ -3983,7 +4015,7 @@
       <c r="G174" s="26"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="31"/>
+      <c r="A175" s="32"/>
       <c r="B175" s="17" t="s">
         <v>219</v>
       </c>
@@ -3994,7 +4026,7 @@
       <c r="G175" s="26"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="32"/>
+      <c r="A176" s="33"/>
       <c r="B176" s="17" t="s">
         <v>220</v>
       </c>
@@ -4005,7 +4037,7 @@
       <c r="G176" s="26"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="30" t="s">
+      <c r="A177" s="31" t="s">
         <v>128</v>
       </c>
       <c r="B177" s="17" t="s">
@@ -4020,7 +4052,7 @@
       <c r="G177" s="26"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="31"/>
+      <c r="A178" s="32"/>
       <c r="B178" s="17" t="s">
         <v>172</v>
       </c>
@@ -4033,7 +4065,7 @@
       <c r="G178" s="26"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="31"/>
+      <c r="A179" s="32"/>
       <c r="B179" s="17" t="s">
         <v>173</v>
       </c>
@@ -4044,7 +4076,7 @@
       <c r="G179" s="26"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="31"/>
+      <c r="A180" s="32"/>
       <c r="B180" s="17" t="s">
         <v>174</v>
       </c>
@@ -4057,7 +4089,7 @@
       <c r="G180" s="26"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="31"/>
+      <c r="A181" s="32"/>
       <c r="B181" s="17" t="s">
         <v>175</v>
       </c>
@@ -4068,7 +4100,7 @@
       <c r="G181" s="26"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="31"/>
+      <c r="A182" s="32"/>
       <c r="B182" s="17" t="s">
         <v>176</v>
       </c>
@@ -4081,7 +4113,7 @@
       <c r="G182" s="26"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="32"/>
+      <c r="A183" s="33"/>
       <c r="B183" s="17" t="s">
         <v>177</v>
       </c>
@@ -4093,17 +4125,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4BBB1-FA5F-4AD0-BCB1-5371B661F41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115CFF2-FEE2-4B5C-AD36-C995F0029E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="327">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1242,6 +1242,45 @@
   </si>
   <si>
     <t>2-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャストとかの時を思い出して</t>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>valueOfは特殊</t>
+    <rPh sb="8" eb="10">
+      <t>トクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予想外</t>
+    <rPh sb="0" eb="3">
+      <t>ヨソウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capacityとはなにか…</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1769,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1795,7 +1834,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1815,7 +1854,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.97222222222222221</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -2117,27 +2156,37 @@
         <v>82</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="26" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="32"/>
       <c r="B20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="26" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="32"/>
       <c r="B21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>322</v>
+      </c>
       <c r="D21" s="15" t="s">
         <v>3</v>
       </c>
@@ -2150,9 +2199,13 @@
       <c r="B22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="26"/>
     </row>
@@ -2161,7 +2214,9 @@
       <c r="B23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2172,7 +2227,9 @@
       <c r="B24" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2183,7 +2240,9 @@
       <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2194,9 +2253,13 @@
       <c r="B26" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="26"/>
     </row>
@@ -2205,7 +2268,9 @@
       <c r="B27" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>322</v>
+      </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -2216,7 +2281,9 @@
       <c r="B28" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>322</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2227,7 +2294,9 @@
       <c r="B29" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -2238,33 +2307,43 @@
       <c r="B30" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D30" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="32"/>
       <c r="B31" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="32"/>
       <c r="B32" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2275,7 +2354,9 @@
       <c r="B33" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -4125,17 +4206,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115CFF2-FEE2-4B5C-AD36-C995F0029E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2EAEF9-7419-4882-8792-6713D6357E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="2604" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題集の苦手分野" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="332">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1281,6 +1281,38 @@
   </si>
   <si>
     <t>capacityとはなにか…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ選択なのを忘れずに</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤っているものを選ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1808,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1834,7 +1866,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1854,7 +1886,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.9555555555555556</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -3579,7 +3611,9 @@
       <c r="B133" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="17"/>
+      <c r="C133" s="17" t="s">
+        <v>329</v>
+      </c>
       <c r="D133" s="15" t="s">
         <v>3</v>
       </c>
@@ -3592,20 +3626,26 @@
       <c r="B134" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="17"/>
+      <c r="C134" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="D134" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
-      <c r="G134" s="26"/>
+      <c r="G134" s="26" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="32"/>
       <c r="B135" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C135" s="17"/>
+      <c r="C135" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D135" s="15" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3658,9 @@
       <c r="B136" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
@@ -3629,11 +3671,15 @@
       <c r="B137" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C137" s="17"/>
+      <c r="C137" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D137" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E137" s="15"/>
+      <c r="E137" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F137" s="15"/>
       <c r="G137" s="26"/>
       <c r="I137" s="18"/>
@@ -3643,11 +3689,15 @@
       <c r="B138" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C138" s="17"/>
+      <c r="C138" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D138" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="15"/>
+      <c r="E138" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F138" s="15"/>
       <c r="G138" s="26"/>
     </row>
@@ -3656,7 +3706,9 @@
       <c r="B139" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C139" s="17"/>
+      <c r="C139" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
@@ -3668,11 +3720,15 @@
       <c r="B140" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C140" s="17"/>
+      <c r="C140" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D140" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="15"/>
+      <c r="E140" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F140" s="15"/>
       <c r="G140" s="26"/>
       <c r="I140" s="21"/>
@@ -4124,7 +4180,9 @@
       <c r="B177" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C177" s="17"/>
+      <c r="C177" s="17" t="s">
+        <v>327</v>
+      </c>
       <c r="D177" s="15" t="s">
         <v>3</v>
       </c>
@@ -4137,11 +4195,15 @@
       <c r="B178" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C178" s="17"/>
+      <c r="C178" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D178" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E178" s="15"/>
+      <c r="E178" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F178" s="15"/>
       <c r="G178" s="26"/>
     </row>
@@ -4150,7 +4212,9 @@
       <c r="B179" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C179" s="17"/>
+      <c r="C179" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
@@ -4161,11 +4225,15 @@
       <c r="B180" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C180" s="17"/>
+      <c r="C180" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D180" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="15"/>
+      <c r="E180" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F180" s="15"/>
       <c r="G180" s="26"/>
     </row>
@@ -4174,9 +4242,13 @@
       <c r="B181" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C181" s="17"/>
+      <c r="C181" s="17" t="s">
+        <v>322</v>
+      </c>
       <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
+      <c r="E181" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F181" s="15"/>
       <c r="G181" s="26"/>
     </row>
@@ -4185,20 +4257,26 @@
       <c r="B182" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C182" s="17"/>
+      <c r="C182" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D182" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
-      <c r="G182" s="26"/>
+      <c r="G182" s="26" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="33"/>
       <c r="B183" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C183" s="17"/>
+      <c r="C183" s="17" t="s">
+        <v>322</v>
+      </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
@@ -4206,17 +4284,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2EAEF9-7419-4882-8792-6713D6357E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A2EB1-7089-4AB2-875E-D009F03C449E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="2604" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題集の苦手分野" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="334">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1241,10 +1241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A,B</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1313,6 +1309,21 @@
   </si>
   <si>
     <t>BC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FH以外</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1841,7 +1852,7 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1866,7 +1877,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1886,7 +1897,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.92222222222222228</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -1923,7 +1934,7 @@
         <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>64</v>
@@ -2193,7 +2204,7 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2202,13 +2213,13 @@
         <v>90</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2217,7 +2228,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>3</v>
@@ -2301,7 +2312,7 @@
         <v>95</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2314,7 +2325,7 @@
         <v>96</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2348,7 +2359,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2365,7 +2376,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2387,7 +2398,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -2401,7 +2412,9 @@
       <c r="B34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -2412,7 +2425,9 @@
       <c r="B35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D35" s="15" t="s">
         <v>3</v>
       </c>
@@ -2425,7 +2440,9 @@
       <c r="B36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -2436,7 +2453,9 @@
       <c r="B37" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -2447,7 +2466,9 @@
       <c r="B38" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -2458,7 +2479,9 @@
       <c r="B39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D39" s="15" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2494,9 @@
       <c r="B40" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -2482,7 +2507,9 @@
       <c r="B41" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -2493,7 +2520,9 @@
       <c r="B42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D42" s="15" t="s">
         <v>3</v>
       </c>
@@ -2506,7 +2535,9 @@
       <c r="B43" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D43" s="15" t="s">
         <v>3</v>
       </c>
@@ -2519,7 +2550,9 @@
       <c r="B44" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D44" s="15" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2565,9 @@
       <c r="B45" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -2543,7 +2578,9 @@
       <c r="B46" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D46" s="15" t="s">
         <v>178</v>
       </c>
@@ -2558,7 +2595,9 @@
       <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2610,9 @@
       <c r="B48" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -2582,7 +2623,9 @@
       <c r="B49" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D49" s="15" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2638,9 @@
       <c r="B50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
@@ -2606,7 +2651,9 @@
       <c r="B51" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2617,11 +2664,15 @@
       <c r="B52" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="D52" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F52" s="15"/>
       <c r="G52" s="26"/>
     </row>
@@ -2630,7 +2681,9 @@
       <c r="B53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="17" t="s">
+        <v>326</v>
+      </c>
       <c r="D53" s="15" t="s">
         <v>3</v>
       </c>
@@ -2643,7 +2696,9 @@
       <c r="B54" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D54" s="15" t="s">
         <v>3</v>
       </c>
@@ -3612,7 +3667,7 @@
         <v>135</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>3</v>
@@ -3627,7 +3682,7 @@
         <v>143</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>3</v>
@@ -3635,7 +3690,7 @@
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
       <c r="G134" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4181,7 +4236,7 @@
         <v>138</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>3</v>
@@ -4243,7 +4298,7 @@
         <v>175</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15" t="s">
@@ -4266,7 +4321,7 @@
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
       <c r="G182" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4275,7 +4330,7 @@
         <v>177</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A2EB1-7089-4AB2-875E-D009F03C449E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFAAC68-B25D-46A6-BBFA-9586B9C53749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="338">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1324,6 +1324,22 @@
   </si>
   <si>
     <t>３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1851,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1877,7 +1893,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1897,7 +1913,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.91666666666666663</v>
+        <v>0.9</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -2917,7 +2933,9 @@
       <c r="B72" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="17"/>
+      <c r="C72" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D72" s="15" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2948,9 @@
       <c r="B73" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
@@ -2943,11 +2963,15 @@
       <c r="B74" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="17"/>
+      <c r="C74" s="17" t="s">
+        <v>335</v>
+      </c>
       <c r="D74" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="E74" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F74" s="15"/>
       <c r="G74" s="26"/>
     </row>
@@ -2956,11 +2980,15 @@
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="17" t="s">
+        <v>336</v>
+      </c>
       <c r="D75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="15"/>
+      <c r="E75" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F75" s="15"/>
       <c r="G75" s="26"/>
     </row>
@@ -2969,7 +2997,9 @@
       <c r="B76" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D76" s="15" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +3012,9 @@
       <c r="B77" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C77" s="17"/>
+      <c r="C77" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D77" s="15" t="s">
         <v>3</v>
       </c>
@@ -2995,11 +3027,15 @@
       <c r="B78" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="17"/>
+      <c r="C78" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="D78" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="15"/>
+      <c r="E78" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F78" s="15"/>
       <c r="G78" s="26"/>
     </row>
@@ -3008,7 +3044,9 @@
       <c r="B79" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="17"/>
+      <c r="C79" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D79" s="15" t="s">
         <v>3</v>
       </c>
@@ -3021,7 +3059,9 @@
       <c r="B80" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C80" s="17"/>
+      <c r="C80" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D80" s="15" t="s">
         <v>3</v>
       </c>
@@ -3034,7 +3074,9 @@
       <c r="B81" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C81" s="17"/>
+      <c r="C81" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -4339,17 +4381,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFAAC68-B25D-46A6-BBFA-9586B9C53749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4D17C-B0FE-44EA-8E62-2BEEDFB75D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="340">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1323,10 +1323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>G</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1340,6 +1336,18 @@
   </si>
   <si>
     <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルとは…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1867,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1893,7 +1901,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1913,7 +1921,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.9</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -1950,7 +1958,7 @@
         <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>64</v>
@@ -2729,7 +2737,9 @@
       <c r="B55" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -2740,7 +2750,9 @@
       <c r="B56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="17"/>
+      <c r="C56" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
@@ -2751,9 +2763,13 @@
       <c r="B57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="E57" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F57" s="15"/>
       <c r="G57" s="26"/>
     </row>
@@ -2762,7 +2778,9 @@
       <c r="B58" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -2773,7 +2791,9 @@
       <c r="B59" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="17"/>
+      <c r="C59" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -2784,7 +2804,9 @@
       <c r="B60" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -2795,11 +2817,15 @@
       <c r="B61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F61" s="15"/>
       <c r="G61" s="26"/>
       <c r="I61" s="18"/>
@@ -2809,7 +2835,9 @@
       <c r="B62" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D62" s="15" t="s">
         <v>3</v>
       </c>
@@ -2822,7 +2850,9 @@
       <c r="B63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="17"/>
+      <c r="C63" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D63" s="15" t="s">
         <v>3</v>
       </c>
@@ -2835,7 +2865,9 @@
       <c r="B64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="17"/>
+      <c r="C64" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -2846,9 +2878,13 @@
       <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="E65" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F65" s="15"/>
       <c r="G65" s="26"/>
     </row>
@@ -2857,7 +2893,9 @@
       <c r="B66" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="17"/>
+      <c r="C66" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
@@ -2868,11 +2906,15 @@
       <c r="B67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D67" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F67" s="15"/>
       <c r="G67" s="26"/>
     </row>
@@ -2881,7 +2923,9 @@
       <c r="B68" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
@@ -2892,7 +2936,9 @@
       <c r="B69" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D69" s="15" t="s">
         <v>3</v>
       </c>
@@ -2905,20 +2951,26 @@
       <c r="B70" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="D70" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="26"/>
+      <c r="G70" s="26" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="33"/>
       <c r="B71" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="17"/>
+      <c r="C71" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D71" s="15" t="s">
         <v>3</v>
       </c>
@@ -2949,7 +3001,7 @@
         <v>140</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>3</v>
@@ -2964,7 +3016,7 @@
         <v>40</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>3</v>
@@ -2981,7 +3033,7 @@
         <v>41</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>3</v>
@@ -3028,7 +3080,7 @@
         <v>43</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>3</v>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4D17C-B0FE-44EA-8E62-2BEEDFB75D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B569EEB0-83B7-4A85-9430-18E6E4F363D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="342">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1347,7 +1347,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5</t>
+    <t>6-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*コメントを後で書く*</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここら辺から読んでおく。</t>
+    <rPh sb="3" eb="4">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1875,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1901,7 +1921,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1921,7 +1941,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.87777777777777777</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -3121,7 +3141,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="26"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9">
       <c r="A81" s="32"/>
       <c r="B81" s="11" t="s">
         <v>183</v>
@@ -3134,36 +3154,45 @@
       <c r="F81" s="15"/>
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9">
       <c r="A82" s="31" t="s">
         <v>123</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="17"/>
+      <c r="C82" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="26"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="I82" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="32"/>
       <c r="B83" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="17"/>
+      <c r="C83" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="26"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:9">
       <c r="A84" s="32"/>
       <c r="B84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="17"/>
+      <c r="C84" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="D84" s="15" t="s">
         <v>3</v>
       </c>
@@ -3171,25 +3200,31 @@
       <c r="F84" s="15"/>
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9">
       <c r="A85" s="32"/>
       <c r="B85" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D85" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="15"/>
+      <c r="E85" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F85" s="15"/>
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:9">
       <c r="A86" s="32"/>
       <c r="B86" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D86" s="15" t="s">
         <v>3</v>
       </c>
@@ -3197,58 +3232,70 @@
       <c r="F86" s="15"/>
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9">
       <c r="A87" s="32"/>
       <c r="B87" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17" t="s">
+        <v>330</v>
+      </c>
       <c r="D87" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F87" s="15"/>
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9">
       <c r="A88" s="32"/>
       <c r="B88" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="26"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9">
       <c r="A89" s="32"/>
       <c r="B89" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="17"/>
+      <c r="C89" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="26"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9">
       <c r="A90" s="32"/>
       <c r="B90" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="17"/>
+      <c r="C90" s="17" t="s">
+        <v>326</v>
+      </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="26"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9">
       <c r="A91" s="32"/>
       <c r="B91" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="17"/>
+      <c r="C91" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D91" s="15" t="s">
         <v>3</v>
       </c>
@@ -3256,12 +3303,14 @@
       <c r="F91" s="15"/>
       <c r="G91" s="26"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9">
       <c r="A92" s="32"/>
       <c r="B92" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="17"/>
+      <c r="C92" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D92" s="15" t="s">
         <v>3</v>
       </c>
@@ -3269,47 +3318,57 @@
       <c r="F92" s="15"/>
       <c r="G92" s="26"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9">
       <c r="A93" s="32"/>
       <c r="B93" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="17"/>
+      <c r="C93" s="17" t="s">
+        <v>330</v>
+      </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="26"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9">
       <c r="A94" s="32"/>
       <c r="B94" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="26"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9">
       <c r="A95" s="32"/>
       <c r="B95" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="17"/>
+      <c r="C95" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="D95" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="15"/>
+      <c r="E95" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F95" s="15"/>
       <c r="G95" s="26"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="A96" s="32"/>
       <c r="B96" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D96" s="15" t="s">
         <v>3</v>
       </c>
@@ -3322,7 +3381,9 @@
       <c r="B97" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17" t="s">
+        <v>328</v>
+      </c>
       <c r="D97" s="15" t="s">
         <v>3</v>
       </c>
@@ -3335,7 +3396,9 @@
       <c r="B98" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D98" s="15" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3411,9 @@
       <c r="B99" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D99" s="15" t="s">
         <v>3</v>
       </c>
@@ -3361,7 +3426,9 @@
       <c r="B100" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -3372,7 +3439,9 @@
       <c r="B101" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D101" s="15" t="s">
         <v>3</v>
       </c>
@@ -3385,7 +3454,9 @@
       <c r="B102" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
@@ -3396,7 +3467,9 @@
       <c r="B103" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D103" s="15" t="s">
         <v>3</v>
       </c>
@@ -3409,20 +3482,26 @@
       <c r="B104" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D104" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="26"/>
+      <c r="G104" s="26" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="32"/>
       <c r="B105" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="17"/>
+      <c r="C105" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D105" s="15" t="s">
         <v>3</v>
       </c>
@@ -3435,7 +3514,9 @@
       <c r="B106" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="17"/>
+      <c r="C106" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
@@ -3446,7 +3527,9 @@
       <c r="B107" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C107" s="17"/>
+      <c r="C107" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D107" s="15" t="s">
         <v>3</v>
       </c>
@@ -3459,7 +3542,9 @@
       <c r="B108" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C108" s="17"/>
+      <c r="C108" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D108" s="15" t="s">
         <v>3</v>
       </c>
@@ -3472,7 +3557,9 @@
       <c r="B109" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C109" s="17"/>
+      <c r="C109" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -3483,7 +3570,9 @@
       <c r="B110" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C110" s="17"/>
+      <c r="C110" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -4433,17 +4522,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,7 +4545,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B569EEB0-83B7-4A85-9430-18E6E4F363D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117170D-F4CD-458A-976A-82E5DE83512A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題集の苦手分野" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="344">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1351,16 +1351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*コメントを後で書く*</t>
-    <rPh sb="6" eb="7">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ここら辺から読んでおく。</t>
     <rPh sb="3" eb="4">
       <t>ヘン</t>
@@ -1368,6 +1358,18 @@
     <rPh sb="6" eb="7">
       <t>ヨ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんで？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1895,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1921,7 +1923,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1941,7 +1943,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.86111111111111116</v>
+        <v>0.82777777777777772</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -3169,7 +3171,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="26"/>
       <c r="I82" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3490,9 +3492,7 @@
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="26" t="s">
-        <v>340</v>
-      </c>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="32"/>
@@ -3583,7 +3583,9 @@
       <c r="B111" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -3596,7 +3598,9 @@
       <c r="B112" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C112" s="17"/>
+      <c r="C112" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -3607,11 +3611,15 @@
       <c r="B113" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C113" s="17"/>
+      <c r="C113" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D113" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="15"/>
+      <c r="E113" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F113" s="15"/>
       <c r="G113" s="26"/>
     </row>
@@ -3620,9 +3628,13 @@
       <c r="B114" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C114" s="17"/>
+      <c r="C114" s="17" t="s">
+        <v>341</v>
+      </c>
       <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
+      <c r="E114" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F114" s="15"/>
       <c r="G114" s="26"/>
     </row>
@@ -3631,11 +3643,15 @@
       <c r="B115" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="17"/>
+      <c r="C115" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D115" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="15"/>
+      <c r="E115" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F115" s="15"/>
       <c r="G115" s="26"/>
     </row>
@@ -3644,7 +3660,9 @@
       <c r="B116" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C116" s="17"/>
+      <c r="C116" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -3655,7 +3673,9 @@
       <c r="B117" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C117" s="17"/>
+      <c r="C117" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D117" s="15" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +3688,9 @@
       <c r="B118" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C118" s="17"/>
+      <c r="C118" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -3679,11 +3701,15 @@
       <c r="B119" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C119" s="17"/>
+      <c r="C119" s="17" t="s">
+        <v>342</v>
+      </c>
       <c r="D119" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="15"/>
+      <c r="E119" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F119" s="15"/>
       <c r="G119" s="26"/>
     </row>
@@ -3692,7 +3718,9 @@
       <c r="B120" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C120" s="17"/>
+      <c r="C120" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D120" s="15" t="s">
         <v>3</v>
       </c>
@@ -3705,9 +3733,13 @@
       <c r="B121" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+      <c r="E121" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F121" s="15"/>
       <c r="G121" s="26"/>
     </row>
@@ -3716,11 +3748,15 @@
       <c r="B122" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D122" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="15"/>
+      <c r="E122" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F122" s="15"/>
       <c r="G122" s="26"/>
     </row>
@@ -3729,7 +3765,9 @@
       <c r="B123" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="17"/>
+      <c r="C123" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D123" s="15" t="s">
         <v>3</v>
       </c>
@@ -3742,7 +3780,9 @@
       <c r="B124" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="17"/>
+      <c r="C124" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D124" s="15" t="s">
         <v>3</v>
       </c>
@@ -3755,7 +3795,9 @@
       <c r="B125" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="17"/>
+      <c r="C125" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
@@ -3766,7 +3808,9 @@
       <c r="B126" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C126" s="17"/>
+      <c r="C126" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="D126" s="15" t="s">
         <v>3</v>
       </c>
@@ -3779,7 +3823,9 @@
       <c r="B127" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C127" s="17"/>
+      <c r="C127" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
@@ -3790,7 +3836,9 @@
       <c r="B128" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C128" s="17"/>
+      <c r="C128" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
@@ -3801,7 +3849,9 @@
       <c r="B129" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="17"/>
+      <c r="C129" s="17" t="s">
+        <v>341</v>
+      </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
@@ -3812,20 +3862,26 @@
       <c r="B130" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="17"/>
+      <c r="C130" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D130" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="26"/>
+      <c r="G130" s="26" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="35"/>
       <c r="B131" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
@@ -3836,7 +3892,9 @@
       <c r="B132" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
@@ -4522,17 +4580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4544,7 +4602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC344B2-D044-45A2-8D57-3C093A72067E}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -5446,7 +5504,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5622,9 +5680,7 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="26" t="s">
-        <v>129</v>
-      </c>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="11" t="s">
@@ -5634,9 +5690,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="26" t="s">
-        <v>130</v>
-      </c>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11" t="s">
@@ -5646,9 +5700,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="26" t="s">
-        <v>131</v>
-      </c>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="11" t="s">
@@ -5668,9 +5720,7 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="26" t="s">
-        <v>132</v>
-      </c>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11" t="s">
@@ -5680,9 +5730,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="26" t="s">
-        <v>133</v>
-      </c>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11" t="s">
@@ -6395,7 +6443,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/Java/java se silver/演習、模試記録.xlsx
+++ b/Java/java se silver/演習、模試記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\tomohiro-odan\git\Competitive-programming\Java\java se silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117170D-F4CD-458A-976A-82E5DE83512A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207AF5DD-4DA1-438C-ADCA-B65BC4550289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題集の苦手分野" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="349">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1370,6 +1370,41 @@
   </si>
   <si>
     <t>なんで？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素数に注意する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A、D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B、D、E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のちに仕様が変わってそう。</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２つ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1897,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1923,7 +1958,7 @@
       </c>
       <c r="E1" s="13">
         <f t="shared" ref="E1:F1" si="0">COUNTIF(E4:E402,"〇")</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F1" s="13">
         <f t="shared" si="0"/>
@@ -1943,7 +1978,7 @@
       </c>
       <c r="E2" s="29">
         <f>1-E1/(COUNTA($B:$B)-1)</f>
-        <v>0.82777777777777772</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="F2" s="29">
         <f>1-F1/(COUNTA($B:$B)-1)</f>
@@ -4036,7 +4071,9 @@
       <c r="B141" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="17"/>
+      <c r="C141" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
@@ -4047,7 +4084,9 @@
       <c r="B142" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="17"/>
+      <c r="C142" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D142" s="15" t="s">
         <v>3</v>
       </c>
@@ -4060,7 +4099,9 @@
       <c r="B143" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="17"/>
+      <c r="C143" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
@@ -4071,7 +4112,9 @@
       <c r="B144" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="17"/>
+      <c r="C144" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
@@ -4082,11 +4125,15 @@
       <c r="B145" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="17"/>
+      <c r="C145" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D145" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="15"/>
+      <c r="E145" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F145" s="15"/>
       <c r="G145" s="26"/>
     </row>
@@ -4095,9 +4142,13 @@
       <c r="B146" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="17"/>
+      <c r="C146" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
+      <c r="E146" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F146" s="15"/>
       <c r="G146" s="26"/>
     </row>
@@ -4106,7 +4157,9 @@
       <c r="B147" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="17"/>
+      <c r="C147" s="17" t="s">
+        <v>346</v>
+      </c>
       <c r="D147" s="15" t="s">
         <v>3</v>
       </c>
@@ -4119,20 +4172,28 @@
       <c r="B148" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="17"/>
+      <c r="C148" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D148" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="15"/>
+      <c r="E148" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F148" s="15"/>
-      <c r="G148" s="26"/>
+      <c r="G148" s="26" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="32"/>
       <c r="B149" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="17"/>
+      <c r="C149" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
@@ -4143,7 +4204,9 @@
       <c r="B150" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="17"/>
+      <c r="C150" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
@@ -4154,7 +4217,9 @@
       <c r="B151" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C151" s="17"/>
+      <c r="C151" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D151" s="15" t="s">
         <v>3</v>
       </c>
@@ -4167,7 +4232,9 @@
       <c r="B152" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C152" s="17"/>
+      <c r="C152" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D152" s="15" t="s">
         <v>3</v>
       </c>
@@ -4180,7 +4247,9 @@
       <c r="B153" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C153" s="17"/>
+      <c r="C153" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
@@ -4191,20 +4260,28 @@
       <c r="B154" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C154" s="17"/>
+      <c r="C154" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D154" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E154" s="15"/>
+      <c r="E154" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F154" s="15"/>
-      <c r="G154" s="26"/>
+      <c r="G154" s="26" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="32"/>
       <c r="B155" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C155" s="17"/>
+      <c r="C155" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D155" s="15" t="s">
         <v>3</v>
       </c>
@@ -4217,7 +4294,9 @@
       <c r="B156" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C156" s="17"/>
+      <c r="C156" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D156" s="15" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4309,9 @@
       <c r="B157" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="17"/>
+      <c r="C157" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
@@ -4241,20 +4322,28 @@
       <c r="B158" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C158" s="17"/>
+      <c r="C158" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D158" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="15"/>
+      <c r="E158" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F158" s="15"/>
-      <c r="G158" s="26"/>
+      <c r="G158" s="26" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="33"/>
       <c r="B159" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C159" s="17"/>
+      <c r="C159" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
@@ -4267,20 +4356,26 @@
       <c r="B160" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C160" s="17"/>
+      <c r="C160" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D160" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
-      <c r="G160" s="26"/>
+      <c r="G160" s="26" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="32"/>
       <c r="B161" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D161" s="15" t="s">
         <v>3</v>
       </c>
@@ -4293,7 +4388,9 @@
       <c r="B162" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D162" s="15" t="s">
         <v>3</v>
       </c>
@@ -4306,7 +4403,9 @@
       <c r="B163" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
@@ -4317,7 +4416,9 @@
       <c r="B164" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="17"/>
+      <c r="C164" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D164" s="15" t="s">
         <v>3</v>
       </c>
@@ -4330,7 +4431,9 @@
       <c r="B165" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D165" s="15" t="s">
         <v>3</v>
       </c>
@@ -4343,9 +4446,13 @@
       <c r="B166" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
+      <c r="E166" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F166" s="15"/>
       <c r="G166" s="26"/>
     </row>
@@ -4354,7 +4461,9 @@
       <c r="B167" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -4365,7 +4474,9 @@
       <c r="B168" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
@@ -4376,7 +4487,9 @@
       <c r="B169" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="D169" s="15" t="s">
         <v>3</v>
       </c>
@@ -4389,7 +4502,9 @@
       <c r="B170" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17" t="s">
+        <v>345</v>
+      </c>
       <c r="D170" s="15" t="s">
         <v>3</v>
       </c>
@@ -4404,11 +4519,15 @@
       <c r="B171" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D171" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E171" s="15"/>
+      <c r="E171" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F171" s="15"/>
       <c r="G171" s="26"/>
     </row>
@@ -4417,7 +4536,9 @@
       <c r="B172" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
@@ -4428,7 +4549,9 @@
       <c r="B173" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C173" s="17"/>
+      <c r="C173" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
@@ -4439,11 +4562,15 @@
       <c r="B174" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C174" s="17"/>
+      <c r="C174" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D174" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E174" s="15"/>
+      <c r="E174" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="F174" s="15"/>
       <c r="G174" s="26"/>
     </row>
@@ -4452,7 +4579,9 @@
       <c r="B175" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
@@ -4463,7 +4592,9 @@
       <c r="B176" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C176" s="17"/>
+      <c r="C176" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
@@ -4580,17 +4711,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A33"/>
+    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A111"/>
     <mergeCell ref="A160:A176"/>
     <mergeCell ref="A177:A183"/>
     <mergeCell ref="A133:A140"/>
     <mergeCell ref="A141:A159"/>
     <mergeCell ref="A112:A132"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
